--- a/Data/controlVariables.xlsx
+++ b/Data/controlVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuantitativeMethods_IB\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BB65297-E230-4EF0-A957-AC7B85F6E89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B17769-8A45-4C3F-B9BA-B8B73A738200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RetailSales" sheetId="6" r:id="rId1"/>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="143">
-  <si>
-    <t>Products and product groups</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="166">
   <si>
     <t>2009-01</t>
   </si>
   <si>
-    <t>Clothing and footwear</t>
-  </si>
-  <si>
     <t>2009-02</t>
   </si>
   <si>
@@ -453,12 +447,87 @@
   </si>
   <si>
     <t xml:space="preserve">Shoe stores </t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1294,10 +1363,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1309,27 +1378,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>834430</v>
@@ -1343,10 +1412,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>730280</v>
@@ -1360,10 +1429,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>865665</v>
@@ -1377,10 +1446,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>938035</v>
@@ -1394,10 +1463,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>996455</v>
@@ -1411,10 +1480,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>985040</v>
@@ -1428,10 +1497,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>951460</v>
@@ -1445,10 +1514,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1011315</v>
@@ -1462,10 +1531,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1032330</v>
@@ -1479,10 +1548,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1040975</v>
@@ -1496,10 +1565,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1091225</v>
@@ -1513,10 +1582,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1666705</v>
@@ -1530,10 +1599,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>849825</v>
@@ -1547,10 +1616,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>834835</v>
@@ -1564,10 +1633,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>975740</v>
@@ -1581,10 +1650,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>997395</v>
@@ -1598,10 +1667,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1055920</v>
@@ -1615,10 +1684,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1102005</v>
@@ -1632,10 +1701,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1061750</v>
@@ -1649,10 +1718,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>999880</v>
@@ -1666,10 +1735,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>1152070</v>
@@ -1683,10 +1752,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1133985</v>
@@ -1700,10 +1769,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>1239040</v>
@@ -1717,10 +1786,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1733105</v>
@@ -1734,10 +1803,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>844335</v>
@@ -1751,10 +1820,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>847110</v>
@@ -1768,10 +1837,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>972740</v>
@@ -1785,10 +1854,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1077265</v>
@@ -1802,10 +1871,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1076520</v>
@@ -1819,10 +1888,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>1135180</v>
@@ -1836,10 +1905,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>1098190</v>
@@ -1853,10 +1922,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>1139455</v>
@@ -1870,10 +1939,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>1210065</v>
@@ -1887,10 +1956,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>1223935</v>
@@ -1904,10 +1973,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>1347015</v>
@@ -1921,10 +1990,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>1904890</v>
@@ -1938,10 +2007,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>918455</v>
@@ -1955,10 +2024,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>890865</v>
@@ -1972,10 +2041,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>1074085</v>
@@ -1989,10 +2058,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>1085070</v>
@@ -2006,10 +2075,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>1206060</v>
@@ -2023,10 +2092,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>1210920</v>
@@ -2040,10 +2109,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>1094460</v>
@@ -2057,10 +2126,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>1159500</v>
@@ -2074,10 +2143,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>1185915</v>
@@ -2091,10 +2160,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>1261395</v>
@@ -2108,10 +2177,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>1287855</v>
@@ -2125,10 +2194,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>1910950</v>
@@ -2142,10 +2211,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>954475</v>
@@ -2159,10 +2228,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>874905</v>
@@ -2176,10 +2245,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>1055000</v>
@@ -2193,10 +2262,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>1098675</v>
@@ -2210,10 +2279,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>1231965</v>
@@ -2227,10 +2296,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>1201595</v>
@@ -2244,10 +2313,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>1180045</v>
@@ -2261,10 +2330,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>1317855</v>
@@ -2278,10 +2347,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>1246025</v>
@@ -2295,10 +2364,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>1318340</v>
@@ -2312,10 +2381,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>1472270</v>
@@ -2329,10 +2398,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>2009775</v>
@@ -2346,10 +2415,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>1004265</v>
@@ -2363,10 +2432,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>950130</v>
@@ -2380,10 +2449,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>1147650</v>
@@ -2397,10 +2466,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>1229990</v>
@@ -2414,10 +2483,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>1354655</v>
@@ -2431,10 +2500,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>1312500</v>
@@ -2448,10 +2517,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>1299040</v>
@@ -2465,10 +2534,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>1380670</v>
@@ -2482,10 +2551,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>1381380</v>
@@ -2499,10 +2568,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>1420220</v>
@@ -2516,10 +2585,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>1679840</v>
@@ -2533,10 +2602,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>2107345</v>
@@ -2550,10 +2619,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>1116425</v>
@@ -2567,10 +2636,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>1088950</v>
@@ -2584,10 +2653,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>1276795</v>
@@ -2601,10 +2670,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>1319060</v>
@@ -2618,10 +2687,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>1533350</v>
@@ -2635,10 +2704,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>1491695</v>
@@ -2652,10 +2721,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>1454280</v>
@@ -2669,10 +2738,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>1581250</v>
@@ -2686,10 +2755,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>1711085</v>
@@ -2703,10 +2772,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>1663550</v>
@@ -2720,10 +2789,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>1905715</v>
@@ -2737,10 +2806,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>2403845</v>
@@ -2754,10 +2823,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>1283410</v>
@@ -2771,10 +2840,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>1298330</v>
@@ -2788,10 +2857,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>1491670</v>
@@ -2805,10 +2874,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>1529955</v>
@@ -2822,10 +2891,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>1654430</v>
@@ -2839,10 +2908,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>1645050</v>
@@ -2856,10 +2925,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>1654100</v>
@@ -2873,10 +2942,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>1695515</v>
@@ -2890,10 +2959,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94">
         <v>1779665</v>
@@ -2907,10 +2976,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C95">
         <v>1842275</v>
@@ -2924,10 +2993,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96">
         <v>2126705</v>
@@ -2941,10 +3010,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>2595145</v>
@@ -2958,10 +3027,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>1145490</v>
@@ -2975,10 +3044,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99">
         <v>1206815</v>
@@ -2992,10 +3061,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>1343415</v>
@@ -3009,10 +3078,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>1416605</v>
@@ -3026,10 +3095,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>1709735</v>
@@ -3043,10 +3112,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>1659660</v>
@@ -3060,10 +3129,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>1627775</v>
@@ -3077,10 +3146,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>1761755</v>
@@ -3094,10 +3163,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <v>1733185</v>
@@ -3111,10 +3180,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>1753640</v>
@@ -3128,10 +3197,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>2102045</v>
@@ -3145,10 +3214,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>2588890</v>
@@ -3162,10 +3231,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>1278420</v>
@@ -3179,10 +3248,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>1380520</v>
@@ -3196,10 +3265,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>1702875</v>
@@ -3213,10 +3282,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>1578860</v>
@@ -3230,10 +3299,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>1991390</v>
@@ -3247,10 +3316,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>1921760</v>
@@ -3264,10 +3333,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>1852600</v>
@@ -3281,10 +3350,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>1946280</v>
@@ -3298,10 +3367,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>1990285</v>
@@ -3315,10 +3384,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>1893550</v>
@@ -3332,10 +3401,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C120">
         <v>2422700</v>
@@ -3349,10 +3418,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121">
         <v>2849220</v>
@@ -3366,10 +3435,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122">
         <v>1441085</v>
@@ -3383,10 +3452,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>1370560</v>
@@ -3400,10 +3469,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>1784050</v>
@@ -3417,10 +3486,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125">
         <v>1653620</v>
@@ -3434,10 +3503,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>1995920</v>
@@ -3451,10 +3520,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>1931425</v>
@@ -3468,10 +3537,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>1905590</v>
@@ -3485,10 +3554,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>1922075</v>
@@ -3502,10 +3571,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>1820800</v>
@@ -3519,10 +3588,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>1893910</v>
@@ -3536,10 +3605,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>2306570</v>
@@ -3553,10 +3622,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>2750310</v>
@@ -3570,10 +3639,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>120855</v>
@@ -3587,10 +3656,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>100875</v>
@@ -3604,10 +3673,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>117435</v>
@@ -3621,10 +3690,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>145595</v>
@@ -3638,10 +3707,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>157035</v>
@@ -3655,10 +3724,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>143185</v>
@@ -3672,10 +3741,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140">
         <v>141830</v>
@@ -3689,10 +3758,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C141">
         <v>151085</v>
@@ -3706,10 +3775,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C142">
         <v>165640</v>
@@ -3723,10 +3792,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C143">
         <v>169490</v>
@@ -3740,10 +3809,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C144">
         <v>150080</v>
@@ -3757,10 +3826,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C145">
         <v>217030</v>
@@ -3774,10 +3843,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>139470</v>
@@ -3791,10 +3860,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C147">
         <v>122370</v>
@@ -3808,10 +3877,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C148">
         <v>153265</v>
@@ -3825,10 +3894,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C149">
         <v>166380</v>
@@ -3842,10 +3911,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C150">
         <v>177270</v>
@@ -3859,10 +3928,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C151">
         <v>165930</v>
@@ -3876,10 +3945,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C152">
         <v>166280</v>
@@ -3893,10 +3962,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C153">
         <v>172295</v>
@@ -3910,10 +3979,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C154">
         <v>195880</v>
@@ -3927,10 +3996,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C155">
         <v>182910</v>
@@ -3944,10 +4013,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C156">
         <v>176425</v>
@@ -3961,10 +4030,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C157">
         <v>215375</v>
@@ -3978,10 +4047,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C158">
         <v>133850</v>
@@ -3995,10 +4064,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C159">
         <v>110945</v>
@@ -4012,10 +4081,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C160">
         <v>135750</v>
@@ -4029,10 +4098,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C161">
         <v>154355</v>
@@ -4046,10 +4115,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C162">
         <v>161560</v>
@@ -4063,10 +4132,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C163">
         <v>155895</v>
@@ -4080,10 +4149,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C164">
         <v>162145</v>
@@ -4097,10 +4166,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C165">
         <v>168420</v>
@@ -4114,10 +4183,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C166">
         <v>186350</v>
@@ -4131,10 +4200,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C167">
         <v>184170</v>
@@ -4148,10 +4217,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C168">
         <v>167525</v>
@@ -4165,10 +4234,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C169">
         <v>214915</v>
@@ -4182,10 +4251,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C170">
         <v>123780</v>
@@ -4199,10 +4268,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C171">
         <v>113890</v>
@@ -4216,10 +4285,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B172" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C172">
         <v>135005</v>
@@ -4233,10 +4302,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C173">
         <v>169450</v>
@@ -4250,10 +4319,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C174">
         <v>186735</v>
@@ -4267,10 +4336,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C175">
         <v>175545</v>
@@ -4284,10 +4353,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C176">
         <v>173445</v>
@@ -4301,10 +4370,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C177">
         <v>167810</v>
@@ -4318,10 +4387,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C178">
         <v>195430</v>
@@ -4335,10 +4404,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C179">
         <v>184425</v>
@@ -4352,10 +4421,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C180">
         <v>169200</v>
@@ -4369,10 +4438,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C181">
         <v>225490</v>
@@ -4386,10 +4455,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C182">
         <v>135550</v>
@@ -4403,10 +4472,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C183">
         <v>127190</v>
@@ -4420,10 +4489,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C184">
         <v>153420</v>
@@ -4437,10 +4506,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C185">
         <v>170020</v>
@@ -4454,10 +4523,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C186">
         <v>182175</v>
@@ -4471,10 +4540,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C187">
         <v>168100</v>
@@ -4488,10 +4557,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B188" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C188">
         <v>169820</v>
@@ -4505,10 +4574,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B189" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C189">
         <v>190630</v>
@@ -4522,10 +4591,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B190" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C190">
         <v>185400</v>
@@ -4539,10 +4608,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C191">
         <v>181740</v>
@@ -4556,10 +4625,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C192">
         <v>174820</v>
@@ -4573,10 +4642,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B193" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C193">
         <v>233430</v>
@@ -4590,10 +4659,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C194">
         <v>145265</v>
@@ -4607,10 +4676,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B195" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C195">
         <v>123080</v>
@@ -4624,10 +4693,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B196" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C196">
         <v>154170</v>
@@ -4641,10 +4710,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B197" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C197">
         <v>177715</v>
@@ -4658,10 +4727,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B198" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C198">
         <v>196300</v>
@@ -4675,10 +4744,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B199" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C199">
         <v>174675</v>
@@ -4692,10 +4761,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B200" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C200">
         <v>183685</v>
@@ -4709,10 +4778,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B201" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C201">
         <v>197935</v>
@@ -4726,10 +4795,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B202" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C202">
         <v>195135</v>
@@ -4743,10 +4812,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B203" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C203">
         <v>188935</v>
@@ -4760,10 +4829,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C204">
         <v>185445</v>
@@ -4777,10 +4846,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B205" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C205">
         <v>225240</v>
@@ -4794,10 +4863,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B206" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C206">
         <v>129750</v>
@@ -4811,10 +4880,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C207">
         <v>128020</v>
@@ -4828,10 +4897,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B208" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C208">
         <v>155435</v>
@@ -4845,10 +4914,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B209" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C209">
         <v>174620</v>
@@ -4862,10 +4931,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B210" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C210">
         <v>193750</v>
@@ -4879,10 +4948,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B211" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C211">
         <v>177925</v>
@@ -4896,10 +4965,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C212">
         <v>193395</v>
@@ -4913,10 +4982,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C213">
         <v>212745</v>
@@ -4930,10 +4999,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B214" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C214">
         <v>217515</v>
@@ -4947,10 +5016,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B215" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C215">
         <v>194870</v>
@@ -4964,10 +5033,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B216" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C216">
         <v>203305</v>
@@ -4981,10 +5050,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B217" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C217">
         <v>249490</v>
@@ -4998,10 +5067,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C218">
         <v>156885</v>
@@ -5015,10 +5084,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C219">
         <v>160070</v>
@@ -5032,10 +5101,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C220">
         <v>191190</v>
@@ -5049,10 +5118,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B221" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C221">
         <v>220830</v>
@@ -5066,10 +5135,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B222" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C222">
         <v>219215</v>
@@ -5083,10 +5152,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C223">
         <v>211485</v>
@@ -5100,10 +5169,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C224">
         <v>218445</v>
@@ -5117,10 +5186,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B225" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C225">
         <v>236290</v>
@@ -5134,10 +5203,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B226" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C226">
         <v>250845</v>
@@ -5151,10 +5220,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B227" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C227">
         <v>255710</v>
@@ -5168,10 +5237,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B228" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C228">
         <v>247395</v>
@@ -5185,10 +5254,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B229" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C229">
         <v>316545</v>
@@ -5202,10 +5271,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B230" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C230">
         <v>161975</v>
@@ -5219,10 +5288,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B231" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C231">
         <v>165240</v>
@@ -5236,10 +5305,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B232" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C232">
         <v>202565</v>
@@ -5253,10 +5322,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B233" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C233">
         <v>225595</v>
@@ -5270,10 +5339,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B234" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C234">
         <v>242675</v>
@@ -5287,10 +5356,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B235" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C235">
         <v>218380</v>
@@ -5304,10 +5373,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B236" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C236">
         <v>219015</v>
@@ -5321,10 +5390,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C237">
         <v>233045</v>
@@ -5338,10 +5407,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B238" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C238">
         <v>239615</v>
@@ -5355,10 +5424,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B239" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C239">
         <v>238115</v>
@@ -5372,10 +5441,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B240" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C240">
         <v>261520</v>
@@ -5389,10 +5458,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B241" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C241">
         <v>312460</v>
@@ -5406,10 +5475,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B242" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C242">
         <v>158960</v>
@@ -5423,10 +5492,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B243" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C243">
         <v>160035</v>
@@ -5440,10 +5509,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B244" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C244">
         <v>222070</v>
@@ -5457,10 +5526,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B245" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C245">
         <v>211790</v>
@@ -5474,10 +5543,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B246" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C246">
         <v>241690</v>
@@ -5491,10 +5560,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B247" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C247">
         <v>235565</v>
@@ -5508,10 +5577,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B248" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C248">
         <v>237175</v>
@@ -5525,10 +5594,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B249" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C249">
         <v>263045</v>
@@ -5542,10 +5611,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B250" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C250">
         <v>249140</v>
@@ -5559,10 +5628,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B251" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C251">
         <v>225360</v>
@@ -5576,10 +5645,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B252" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C252">
         <v>276095</v>
@@ -5593,10 +5662,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B253" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C253">
         <v>318565</v>
@@ -5610,10 +5679,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B254" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C254">
         <v>175235</v>
@@ -5627,10 +5696,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B255" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C255">
         <v>165605</v>
@@ -5644,10 +5713,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B256" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C256">
         <v>244855</v>
@@ -5661,10 +5730,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B257" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C257">
         <v>207310</v>
@@ -5678,10 +5747,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B258" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C258">
         <v>240215</v>
@@ -5695,10 +5764,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B259" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C259">
         <v>230410</v>
@@ -5712,10 +5781,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B260" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C260">
         <v>223625</v>
@@ -5729,10 +5798,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B261" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C261">
         <v>262895</v>
@@ -5746,10 +5815,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B262" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C262">
         <v>239980</v>
@@ -5763,10 +5832,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B263" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C263">
         <v>225375</v>
@@ -5780,10 +5849,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B264" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C264">
         <v>247085</v>
@@ -5797,10 +5866,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B265" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C265">
         <v>308145</v>
@@ -5818,10 +5887,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5834,2265 +5903,592 @@
     <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>128.61666666666599</v>
       </c>
       <c r="C2">
-        <v>97.3</v>
+        <v>131.78333333333299</v>
       </c>
       <c r="D2">
-        <v>90.4</v>
-      </c>
-      <c r="E2">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124.149999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>128.46666666666599</v>
       </c>
       <c r="C3">
-        <v>99.6</v>
+        <v>132.083333333333</v>
       </c>
       <c r="D3">
-        <v>92.9</v>
-      </c>
-      <c r="E3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124.216666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>127.85</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>131.583333333333</v>
       </c>
       <c r="D4">
-        <v>95.2</v>
-      </c>
-      <c r="E4">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123.833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>127.083333333333</v>
       </c>
       <c r="C5">
-        <v>99.7</v>
+        <v>130.85</v>
       </c>
       <c r="D5">
-        <v>94.7</v>
-      </c>
-      <c r="E5">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123.533333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>127.716666666666</v>
       </c>
       <c r="C6">
-        <v>100.7</v>
+        <v>131.46666666666599</v>
       </c>
       <c r="D6">
-        <v>92.6</v>
-      </c>
-      <c r="E6">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>128.74999999999901</v>
       </c>
       <c r="C7">
-        <v>96.9</v>
+        <v>132.31666666666601</v>
       </c>
       <c r="D7">
-        <v>89.1</v>
-      </c>
-      <c r="E7">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125.06666666666599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>129.38333333333301</v>
       </c>
       <c r="C8">
-        <v>98.4</v>
+        <v>133</v>
       </c>
       <c r="D8">
-        <v>89.6</v>
-      </c>
-      <c r="E8">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125.433333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>129.44999999999999</v>
       </c>
       <c r="C9">
-        <v>99.1</v>
+        <v>132.78333333333299</v>
       </c>
       <c r="D9">
-        <v>90.6</v>
-      </c>
-      <c r="E9">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.06666666666599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>129.916666666666</v>
       </c>
       <c r="C10">
-        <v>102.1</v>
+        <v>133.416666666666</v>
       </c>
       <c r="D10">
-        <v>93.2</v>
-      </c>
-      <c r="E10">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.966666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="B11">
+        <v>130.433333333333</v>
       </c>
       <c r="C11">
-        <v>100.9</v>
+        <v>133.016666666666</v>
       </c>
       <c r="D11">
-        <v>93.3</v>
-      </c>
-      <c r="E11">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="B12">
+        <v>130.86666666666599</v>
       </c>
       <c r="C12">
-        <v>100.1</v>
+        <v>133.48333333333301</v>
       </c>
       <c r="D12">
-        <v>94</v>
-      </c>
-      <c r="E12">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="B13">
+        <v>130.54999999999899</v>
       </c>
       <c r="C13">
-        <v>98.2</v>
+        <v>133.23333333333301</v>
       </c>
       <c r="D13">
-        <v>88.9</v>
-      </c>
-      <c r="E13">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.633333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>131.333333333333</v>
       </c>
       <c r="C14">
-        <v>98.8</v>
+        <v>132.933333333333</v>
       </c>
       <c r="D14">
-        <v>88.4</v>
-      </c>
-      <c r="E14">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.916666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>131.183333333333</v>
       </c>
       <c r="C15">
-        <v>99.2</v>
+        <v>133.06666666666601</v>
       </c>
       <c r="D15">
-        <v>90.2</v>
-      </c>
-      <c r="E15">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.183333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>130.96666666666599</v>
       </c>
       <c r="C16">
-        <v>101.5</v>
+        <v>132.53333333333299</v>
       </c>
       <c r="D16">
-        <v>91.9</v>
-      </c>
-      <c r="E16">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>129.88333333333301</v>
       </c>
       <c r="C17">
-        <v>100.4</v>
+        <v>131.28333333333299</v>
       </c>
       <c r="D17">
-        <v>92.6</v>
-      </c>
-      <c r="E17">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="B18">
+        <v>130.73333333333301</v>
       </c>
       <c r="C18">
-        <v>98</v>
+        <v>131.88333333333301</v>
       </c>
       <c r="D18">
-        <v>92.2</v>
-      </c>
-      <c r="E18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.433333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="B19">
+        <v>131.516666666666</v>
       </c>
       <c r="C19">
-        <v>97</v>
+        <v>132.583333333333</v>
       </c>
       <c r="D19">
-        <v>88.2</v>
-      </c>
-      <c r="E19">
-        <v>85.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.149999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>132.016666666666</v>
       </c>
       <c r="C20">
-        <v>97.1</v>
+        <v>133.083333333333</v>
       </c>
       <c r="D20">
-        <v>88</v>
-      </c>
-      <c r="E20">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.166666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>130.766666666666</v>
       </c>
       <c r="C21">
-        <v>96.6</v>
+        <v>132.516666666666</v>
       </c>
       <c r="D21">
-        <v>89.7</v>
-      </c>
-      <c r="E21">
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>130.516666666666</v>
       </c>
       <c r="C22">
-        <v>98.6</v>
+        <v>132.166666666666</v>
       </c>
       <c r="D22">
-        <v>93.1</v>
-      </c>
-      <c r="E22">
-        <v>86.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.216666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
+        <v>146</v>
+      </c>
+      <c r="B23">
+        <v>131.25</v>
       </c>
       <c r="C23">
-        <v>101.2</v>
+        <v>132.35</v>
       </c>
       <c r="D23">
-        <v>95</v>
-      </c>
-      <c r="E23">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.683333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <v>131.13333333333301</v>
       </c>
       <c r="C24">
-        <v>97.8</v>
+        <v>132.516666666666</v>
       </c>
       <c r="D24">
-        <v>91.5</v>
-      </c>
-      <c r="E24">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126.833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="B25">
+        <v>131.48333333333301</v>
       </c>
       <c r="C25">
-        <v>93.9</v>
+        <v>132.53333333333299</v>
       </c>
       <c r="D25">
-        <v>88.1</v>
-      </c>
-      <c r="E25">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.216666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="B26">
+        <v>131.48333333333301</v>
       </c>
       <c r="C26">
-        <v>94.7</v>
+        <v>132.683333333333</v>
       </c>
       <c r="D26">
-        <v>86.3</v>
-      </c>
-      <c r="E26">
-        <v>82.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.216666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>131.56666666666601</v>
       </c>
       <c r="C27">
-        <v>96.1</v>
+        <v>132.63333333333301</v>
       </c>
       <c r="D27">
-        <v>89</v>
-      </c>
-      <c r="E27">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="B28">
+        <v>131.9</v>
       </c>
       <c r="C28">
-        <v>100.4</v>
+        <v>132.683333333333</v>
       </c>
       <c r="D28">
-        <v>93.7</v>
-      </c>
-      <c r="E28">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128.48333333333301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="B29">
+        <v>130.31666666666601</v>
       </c>
       <c r="C29">
-        <v>97.9</v>
+        <v>131.98333333333301</v>
       </c>
       <c r="D29">
-        <v>93.7</v>
-      </c>
-      <c r="E29">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.48333333333299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>130.833333333333</v>
       </c>
       <c r="C30">
-        <v>98.3</v>
+        <v>132.766666666666</v>
       </c>
       <c r="D30">
-        <v>93.1</v>
-      </c>
-      <c r="E30">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128.05000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>131.1</v>
       </c>
       <c r="C31">
-        <v>94.1</v>
+        <v>133</v>
       </c>
       <c r="D31">
-        <v>91</v>
-      </c>
-      <c r="E31">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128.94999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>131.54999999999899</v>
       </c>
       <c r="C32">
-        <v>92.3</v>
+        <v>133.183333333333</v>
       </c>
       <c r="D32">
-        <v>89.9</v>
-      </c>
-      <c r="E32">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128.78333333333299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
+        <v>156</v>
+      </c>
+      <c r="B33">
+        <v>132.266666666666</v>
       </c>
       <c r="C33">
-        <v>96.2</v>
+        <v>134.016666666666</v>
       </c>
       <c r="D33">
-        <v>90.6</v>
-      </c>
-      <c r="E33">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129.86666666666599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="B34">
+        <v>132.833333333333</v>
       </c>
       <c r="C34">
-        <v>99.7</v>
+        <v>134.36666666666599</v>
       </c>
       <c r="D34">
-        <v>95.8</v>
-      </c>
-      <c r="E34">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130.583333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="B35">
+        <v>132.88333333333301</v>
       </c>
       <c r="C35">
-        <v>102.6</v>
+        <v>134.44999999999999</v>
       </c>
       <c r="D35">
-        <v>95.4</v>
-      </c>
-      <c r="E35">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130.416666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="B36">
+        <v>133.56666666666601</v>
       </c>
       <c r="C36">
-        <v>101.3</v>
+        <v>134.75</v>
       </c>
       <c r="D36">
-        <v>92</v>
-      </c>
-      <c r="E36">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131.06666666666601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="B37">
+        <v>133.96666666666599</v>
       </c>
       <c r="C37">
-        <v>97</v>
+        <v>134.85</v>
       </c>
       <c r="D37">
-        <v>88.6</v>
-      </c>
-      <c r="E37">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131.06666666666601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="B38">
+        <v>134.31666666666601</v>
       </c>
       <c r="C38">
-        <v>97.5</v>
+        <v>135.11666666666599</v>
       </c>
       <c r="D38">
-        <v>88.3</v>
-      </c>
-      <c r="E38">
-        <v>83.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131.71666666666599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="B39">
+        <v>134.833333333333</v>
       </c>
       <c r="C39">
-        <v>101.6</v>
+        <v>135.96666666666599</v>
       </c>
       <c r="D39">
-        <v>92.6</v>
-      </c>
-      <c r="E39">
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132.48333333333301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="B40">
+        <v>134.64999999999901</v>
       </c>
       <c r="C40">
-        <v>102.9</v>
+        <v>136.166666666666</v>
       </c>
       <c r="D40">
-        <v>94.6</v>
-      </c>
-      <c r="E40">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133.03333333333299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="B41">
+        <v>133.516666666666</v>
       </c>
       <c r="C41">
-        <v>104.6</v>
+        <v>135.46666666666599</v>
       </c>
       <c r="D41">
-        <v>93.3</v>
-      </c>
-      <c r="E41">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132.016666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="B42">
+        <v>134.96666666666599</v>
       </c>
       <c r="C42">
-        <v>102.3</v>
+        <v>137.016666666666</v>
       </c>
       <c r="D42">
-        <v>91.2</v>
-      </c>
-      <c r="E42">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>98.9</v>
-      </c>
-      <c r="D43">
-        <v>88.6</v>
-      </c>
-      <c r="E43">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>96.9</v>
-      </c>
-      <c r="D44">
-        <v>86.5</v>
-      </c>
-      <c r="E44">
-        <v>87.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>99.4</v>
-      </c>
-      <c r="D45">
-        <v>86.5</v>
-      </c>
-      <c r="E45">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>102.8</v>
-      </c>
-      <c r="D46">
-        <v>90</v>
-      </c>
-      <c r="E46">
-        <v>92.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>101.7</v>
-      </c>
-      <c r="D47">
-        <v>92.1</v>
-      </c>
-      <c r="E47">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>100.9</v>
-      </c>
-      <c r="D48">
-        <v>88.6</v>
-      </c>
-      <c r="E48">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>97</v>
-      </c>
-      <c r="D49">
-        <v>85.7</v>
-      </c>
-      <c r="E49">
-        <v>88.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>97.6</v>
-      </c>
-      <c r="D50">
-        <v>83.8</v>
-      </c>
-      <c r="E50">
-        <v>86.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51">
-        <v>88.7</v>
-      </c>
-      <c r="E51">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>103.7</v>
-      </c>
-      <c r="D52">
-        <v>93</v>
-      </c>
-      <c r="E52">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>103.7</v>
-      </c>
-      <c r="D53">
-        <v>91.4</v>
-      </c>
-      <c r="E53">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>102.3</v>
-      </c>
-      <c r="D54">
-        <v>91.1</v>
-      </c>
-      <c r="E54">
-        <v>92.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>98.9</v>
-      </c>
-      <c r="D55">
-        <v>88.8</v>
-      </c>
-      <c r="E55">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>98.2</v>
-      </c>
-      <c r="D56">
-        <v>87.6</v>
-      </c>
-      <c r="E56">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>101</v>
-      </c>
-      <c r="D57">
-        <v>89.1</v>
-      </c>
-      <c r="E57">
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>104.2</v>
-      </c>
-      <c r="D58">
-        <v>89.8</v>
-      </c>
-      <c r="E58">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>103.5</v>
-      </c>
-      <c r="D59">
-        <v>90.3</v>
-      </c>
-      <c r="E59">
-        <v>91.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>100.4</v>
-      </c>
-      <c r="D60">
-        <v>87.9</v>
-      </c>
-      <c r="E60">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>97.9</v>
-      </c>
-      <c r="D61">
-        <v>85.4</v>
-      </c>
-      <c r="E61">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>98.3</v>
-      </c>
-      <c r="D62">
-        <v>85.2</v>
-      </c>
-      <c r="E62">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="D63">
-        <v>89.3</v>
-      </c>
-      <c r="E63">
-        <v>87.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>102.4</v>
-      </c>
-      <c r="D64">
-        <v>92</v>
-      </c>
-      <c r="E64">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>102.6</v>
-      </c>
-      <c r="D65">
-        <v>93.6</v>
-      </c>
-      <c r="E65">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>102.5</v>
-      </c>
-      <c r="D66">
-        <v>93.2</v>
-      </c>
-      <c r="E66">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>101.1</v>
-      </c>
-      <c r="D67">
-        <v>91.7</v>
-      </c>
-      <c r="E67">
-        <v>88.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>101</v>
-      </c>
-      <c r="D68">
-        <v>90.9</v>
-      </c>
-      <c r="E68">
-        <v>87.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>99.5</v>
-      </c>
-      <c r="D69">
-        <v>91.2</v>
-      </c>
-      <c r="E69">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>102.9</v>
-      </c>
-      <c r="D70">
-        <v>94</v>
-      </c>
-      <c r="E70">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>103.9</v>
-      </c>
-      <c r="D71">
-        <v>95.8</v>
-      </c>
-      <c r="E71">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>102.2</v>
-      </c>
-      <c r="D72">
-        <v>93.3</v>
-      </c>
-      <c r="E72">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <v>98.4</v>
-      </c>
-      <c r="D73">
-        <v>90.4</v>
-      </c>
-      <c r="E73">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>99.6</v>
-      </c>
-      <c r="D74">
-        <v>89.3</v>
-      </c>
-      <c r="E74">
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>101.6</v>
-      </c>
-      <c r="D75">
-        <v>91</v>
-      </c>
-      <c r="E75">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>105.6</v>
-      </c>
-      <c r="D76">
-        <v>93.7</v>
-      </c>
-      <c r="E76">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>106.5</v>
-      </c>
-      <c r="D77">
-        <v>93.4</v>
-      </c>
-      <c r="E77">
-        <v>93.9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>104.3</v>
-      </c>
-      <c r="D78">
-        <v>92.3</v>
-      </c>
-      <c r="E78">
-        <v>92.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>101</v>
-      </c>
-      <c r="D79">
-        <v>91.5</v>
-      </c>
-      <c r="E79">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>99.6</v>
-      </c>
-      <c r="D80">
-        <v>91.7</v>
-      </c>
-      <c r="E80">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>102.2</v>
-      </c>
-      <c r="D81">
-        <v>91.4</v>
-      </c>
-      <c r="E81">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>108</v>
-      </c>
-      <c r="D82">
-        <v>93.6</v>
-      </c>
-      <c r="E82">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>108.2</v>
-      </c>
-      <c r="D83">
-        <v>94.9</v>
-      </c>
-      <c r="E83">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>106.5</v>
-      </c>
-      <c r="D84">
-        <v>94.2</v>
-      </c>
-      <c r="E84">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>101.8</v>
-      </c>
-      <c r="D85">
-        <v>89.8</v>
-      </c>
-      <c r="E85">
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>101.4</v>
-      </c>
-      <c r="D86">
-        <v>88.1</v>
-      </c>
-      <c r="E86">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>103.4</v>
-      </c>
-      <c r="D87">
-        <v>88.7</v>
-      </c>
-      <c r="E87">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>106</v>
-      </c>
-      <c r="D88">
-        <v>92.9</v>
-      </c>
-      <c r="E88">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>105.3</v>
-      </c>
-      <c r="D89">
-        <v>93.6</v>
-      </c>
-      <c r="E89">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <v>105.3</v>
-      </c>
-      <c r="D90">
-        <v>93.6</v>
-      </c>
-      <c r="E90">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91">
-        <v>103.6</v>
-      </c>
-      <c r="D91">
-        <v>92.6</v>
-      </c>
-      <c r="E91">
-        <v>92.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92">
-        <v>103.2</v>
-      </c>
-      <c r="D92">
-        <v>90.6</v>
-      </c>
-      <c r="E92">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>103.7</v>
-      </c>
-      <c r="D93">
-        <v>91.8</v>
-      </c>
-      <c r="E93">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>106.9</v>
-      </c>
-      <c r="D94">
-        <v>94.3</v>
-      </c>
-      <c r="E94">
-        <v>94.8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95">
-        <v>107.3</v>
-      </c>
-      <c r="D95">
-        <v>95.3</v>
-      </c>
-      <c r="E95">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96">
-        <v>106.1</v>
-      </c>
-      <c r="D96">
-        <v>93.2</v>
-      </c>
-      <c r="E96">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>104.3</v>
-      </c>
-      <c r="D97">
-        <v>89.7</v>
-      </c>
-      <c r="E97">
-        <v>88.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98">
-        <v>102.2</v>
-      </c>
-      <c r="D98">
-        <v>88.2</v>
-      </c>
-      <c r="E98">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <v>103.7</v>
-      </c>
-      <c r="D99">
-        <v>89.3</v>
-      </c>
-      <c r="E99">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100">
-        <v>106.5</v>
-      </c>
-      <c r="D100">
-        <v>91</v>
-      </c>
-      <c r="E100">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101">
-        <v>105.1</v>
-      </c>
-      <c r="D101">
-        <v>90.2</v>
-      </c>
-      <c r="E101">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102">
-        <v>105.9</v>
-      </c>
-      <c r="D102">
-        <v>90.3</v>
-      </c>
-      <c r="E102">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <v>103.9</v>
-      </c>
-      <c r="D103">
-        <v>89.2</v>
-      </c>
-      <c r="E103">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104">
-        <v>102.8</v>
-      </c>
-      <c r="D104">
-        <v>88.9</v>
-      </c>
-      <c r="E104">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <v>103.5</v>
-      </c>
-      <c r="D105">
-        <v>89.7</v>
-      </c>
-      <c r="E105">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106">
-        <v>105.3</v>
-      </c>
-      <c r="D106">
-        <v>90.6</v>
-      </c>
-      <c r="E106">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>107</v>
-      </c>
-      <c r="D107">
-        <v>91.7</v>
-      </c>
-      <c r="E107">
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>105.1</v>
-      </c>
-      <c r="D108">
-        <v>91.6</v>
-      </c>
-      <c r="E108">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>103</v>
-      </c>
-      <c r="D109">
-        <v>88.1</v>
-      </c>
-      <c r="E109">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110">
-        <v>101.5</v>
-      </c>
-      <c r="D110">
-        <v>87.6</v>
-      </c>
-      <c r="E110">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111">
-        <v>103.8</v>
-      </c>
-      <c r="D111">
-        <v>88.5</v>
-      </c>
-      <c r="E111">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112">
-        <v>105.8</v>
-      </c>
-      <c r="D112">
-        <v>90.5</v>
-      </c>
-      <c r="E112">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>106.3</v>
-      </c>
-      <c r="D113">
-        <v>91.7</v>
-      </c>
-      <c r="E113">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>106.8</v>
-      </c>
-      <c r="D114">
-        <v>90.6</v>
-      </c>
-      <c r="E114">
-        <v>95.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <v>105.9</v>
-      </c>
-      <c r="D115">
-        <v>89.5</v>
-      </c>
-      <c r="E115">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116">
-        <v>104</v>
-      </c>
-      <c r="D116">
-        <v>88.8</v>
-      </c>
-      <c r="E116">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117">
-        <v>104.4</v>
-      </c>
-      <c r="D117">
-        <v>90.1</v>
-      </c>
-      <c r="E117">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118">
-        <v>108.4</v>
-      </c>
-      <c r="D118">
-        <v>91.9</v>
-      </c>
-      <c r="E118">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119">
-        <v>108.9</v>
-      </c>
-      <c r="D119">
-        <v>93.8</v>
-      </c>
-      <c r="E119">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>107.7</v>
-      </c>
-      <c r="D120">
-        <v>92.6</v>
-      </c>
-      <c r="E120">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>103.9</v>
-      </c>
-      <c r="D121">
-        <v>88.9</v>
-      </c>
-      <c r="E121">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122">
-        <v>103.4</v>
-      </c>
-      <c r="D122">
-        <v>89</v>
-      </c>
-      <c r="E122">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123">
-        <v>106.5</v>
-      </c>
-      <c r="D123">
-        <v>91.1</v>
-      </c>
-      <c r="E123">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124">
-        <v>108.3</v>
-      </c>
-      <c r="D124">
-        <v>92.3</v>
-      </c>
-      <c r="E124">
-        <v>94.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <v>108.3</v>
-      </c>
-      <c r="D125">
-        <v>92.6</v>
-      </c>
-      <c r="E125">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126">
-        <v>107.7</v>
-      </c>
-      <c r="D126">
-        <v>92</v>
-      </c>
-      <c r="E126">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127">
-        <v>107</v>
-      </c>
-      <c r="D127">
-        <v>90.4</v>
-      </c>
-      <c r="E127">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128">
-        <v>105.2</v>
-      </c>
-      <c r="D128">
-        <v>90.2</v>
-      </c>
-      <c r="E128">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129">
-        <v>106.4</v>
-      </c>
-      <c r="D129">
-        <v>90.6</v>
-      </c>
-      <c r="E129">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130">
-        <v>109.9</v>
-      </c>
-      <c r="D130">
-        <v>94.3</v>
-      </c>
-      <c r="E130">
-        <v>97.6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131">
-        <v>111.5</v>
-      </c>
-      <c r="D131">
-        <v>95.2</v>
-      </c>
-      <c r="E131">
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132">
-        <v>112.3</v>
-      </c>
-      <c r="D132">
-        <v>93.9</v>
-      </c>
-      <c r="E132">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133">
-        <v>108.4</v>
-      </c>
-      <c r="D133">
-        <v>90.7</v>
-      </c>
-      <c r="E133">
-        <v>93.4</v>
+        <v>132.916666666666</v>
       </c>
     </row>
   </sheetData>
@@ -8101,12 +6497,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8118,21 +6512,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>58.726621899999998</v>
@@ -8146,7 +6540,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>60.497148199999998</v>
@@ -8160,7 +6554,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>58.054488599999999</v>
@@ -8174,7 +6568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>77.202048399999995</v>
@@ -8188,7 +6582,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>75.651746799999998</v>
@@ -8202,7 +6596,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>78.790410499999993</v>
@@ -8216,7 +6610,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>77.812114300000005</v>
@@ -8230,7 +6624,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>83.204868200000007</v>
@@ -8244,7 +6638,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>81.166604699999993</v>
@@ -8258,7 +6652,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>88.084710799999996</v>
@@ -8272,7 +6666,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>73.724111899999997</v>
@@ -8286,7 +6680,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>71.814409699999999</v>
@@ -8300,7 +6694,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>98.085519899999994</v>
@@ -8314,7 +6708,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>81.577908800000003</v>
@@ -8328,7 +6722,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>111.777098</v>
@@ -8342,7 +6736,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>76.689361300000002</v>
@@ -8356,7 +6750,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>88.263988800000007</v>
@@ -8370,7 +6764,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>75.405648799999994</v>
@@ -8384,7 +6778,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>61.863320600000002</v>
@@ -8398,7 +6792,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>73.547715999999994</v>
@@ -8412,7 +6806,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>63.329510599999999</v>
@@ -8426,7 +6820,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>66.209931600000004</v>
@@ -8440,7 +6834,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>83.036887399999998</v>
@@ -8454,7 +6848,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>91.292171300000007</v>
@@ -8468,7 +6862,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>87.683521099999993</v>
@@ -8482,7 +6876,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>85.704938999999996</v>
@@ -8496,7 +6890,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>74.917247399999994</v>
@@ -8510,7 +6904,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>95.061588700000001</v>
@@ -8524,7 +6918,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>77.202891800000003</v>
@@ -8538,7 +6932,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>74.360550799999999</v>
@@ -8552,7 +6946,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>71.224699599999994</v>
@@ -8566,7 +6960,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>72.657233399999996</v>
@@ -8580,7 +6974,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>76.566718300000005</v>
@@ -8594,7 +6988,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>68.825458299999994</v>
@@ -8608,7 +7002,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>69.855502299999998</v>
@@ -8622,7 +7016,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>57.566637900000003</v>
@@ -8636,7 +7030,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>62.709081900000001</v>
@@ -8650,7 +7044,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>63.582895100000002</v>
@@ -8664,7 +7058,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>81.951130699999993</v>
@@ -8678,7 +7072,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>72.871242899999999</v>
@@ -8692,7 +7086,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>74.041164899999998</v>
@@ -8706,7 +7100,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>72.524398300000001</v>
@@ -8720,7 +7114,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>61.925928300000002</v>
@@ -8734,7 +7128,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>71.262520499999994</v>
@@ -8748,7 +7142,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>98.925437599999995</v>
@@ -8762,7 +7156,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>90.323838100000003</v>
@@ -8776,7 +7170,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>76.674797900000002</v>
@@ -8790,7 +7184,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>95.993675400000001</v>
@@ -8804,7 +7198,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>87.888933699999995</v>
@@ -8818,7 +7212,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>90.179074299999996</v>
@@ -8832,7 +7226,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>90.137055099999998</v>
@@ -8846,7 +7240,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>95.166076700000005</v>
@@ -8860,7 +7254,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>92.272507099999999</v>
@@ -8874,7 +7268,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>86.816333700000001</v>
@@ -8888,7 +7282,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>94.806265300000007</v>
@@ -8902,7 +7296,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>79.470996200000002</v>
@@ -8916,7 +7310,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>109.950639</v>
@@ -8930,7 +7324,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>107.45625800000001</v>
@@ -8944,7 +7338,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>86.986426899999998</v>
@@ -8958,7 +7352,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>100.147721</v>
@@ -8972,7 +7366,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>82.633176399999996</v>
@@ -8986,7 +7380,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>89.010852600000007</v>
@@ -9000,7 +7394,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>101.02043500000001</v>
@@ -9014,7 +7408,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>93.408741399999997</v>
@@ -9028,7 +7422,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>100.500367</v>
@@ -9042,7 +7436,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>105.052497</v>
@@ -9056,7 +7450,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>93.733831300000006</v>
@@ -9070,7 +7464,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>103.758032</v>
@@ -9084,7 +7478,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>107.579943</v>
@@ -9098,7 +7492,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>97.649630900000005</v>
@@ -9112,7 +7506,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>98.205088399999994</v>
@@ -9126,7 +7520,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>127.447405</v>
@@ -9140,7 +7534,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>121.287316</v>
@@ -9154,7 +7548,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>112.626728</v>
@@ -9168,7 +7562,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>117.964218</v>
@@ -9182,7 +7576,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>114.472224</v>
@@ -9196,7 +7590,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>119.784796</v>
@@ -9210,7 +7604,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>112.38861900000001</v>
@@ -9224,7 +7618,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>106.59498000000001</v>
@@ -9238,7 +7632,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>101.884623</v>
@@ -9252,7 +7646,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>112.60235900000001</v>
@@ -9266,7 +7660,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>124.209264</v>
@@ -9280,7 +7674,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>133.01334499999999</v>
@@ -9294,7 +7688,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>115.655294</v>
@@ -9308,7 +7702,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>91.980571999999995</v>
@@ -9322,7 +7716,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>95.739607199999995</v>
@@ -9336,7 +7730,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>111.436712</v>
@@ -9350,7 +7744,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>108.15117600000001</v>
@@ -9364,7 +7758,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>124.87451</v>
@@ -9378,7 +7772,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>111.956442</v>
@@ -9392,7 +7786,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>128.47786600000001</v>
@@ -9406,7 +7800,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>119.854316</v>
@@ -9420,7 +7814,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>123.516046</v>
@@ -9434,7 +7828,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>114.798962</v>
@@ -9448,7 +7842,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>130.56337300000001</v>
@@ -9462,7 +7856,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>123.225864</v>
@@ -9476,7 +7870,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>124.135907</v>
@@ -9490,7 +7884,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>126.383517</v>
@@ -9504,7 +7898,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>128.67569599999999</v>
@@ -9518,7 +7912,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>113.519998</v>
@@ -9532,7 +7926,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>136.19877199999999</v>
@@ -9546,7 +7940,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>130.973525</v>
@@ -9560,7 +7954,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>118.04156500000001</v>
@@ -9574,7 +7968,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>135.97474299999999</v>
@@ -9588,7 +7982,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>107.568467</v>
@@ -9602,7 +7996,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>134.66173499999999</v>
@@ -9616,7 +8010,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>144.82789700000001</v>
@@ -9630,7 +8024,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>157.41670099999999</v>
@@ -9644,7 +8038,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>150.730794</v>
@@ -9658,7 +8052,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>114.85759400000001</v>
@@ -9672,7 +8066,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>133.311668</v>
@@ -9686,7 +8080,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>119.203339</v>
@@ -9700,7 +8094,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>135.44415900000001</v>
@@ -9714,7 +8108,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>123.245806</v>
@@ -9728,7 +8122,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>132.384604</v>
@@ -9742,7 +8136,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>119.97189299999999</v>
@@ -9756,7 +8150,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>128.967906</v>
@@ -9770,7 +8164,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>140.02165299999999</v>
@@ -9784,7 +8178,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>135.07551699999999</v>
@@ -9798,7 +8192,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>137.88469499999999</v>
@@ -9812,7 +8206,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>118.016943</v>
@@ -9826,7 +8220,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>114.436323</v>
@@ -9840,7 +8234,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>136.14836099999999</v>
@@ -9854,7 +8248,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>128.11382800000001</v>
@@ -9868,7 +8262,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>156.48472899999999</v>
@@ -9882,7 +8276,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>143.47784999999999</v>
@@ -9896,7 +8290,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>129.80692099999999</v>
@@ -9910,7 +8304,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>126.26011200000001</v>
@@ -9924,7 +8318,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>121.4451</v>
@@ -9938,7 +8332,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>122.354741</v>
@@ -9952,7 +8346,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>132.96228099999999</v>
@@ -9966,7 +8360,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>108.28752900000001</v>
@@ -9984,12 +8378,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10001,19 +8393,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10021,7 +8413,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>120292</v>
@@ -10038,7 +8430,7 @@
         <v>2010</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>126042</v>
@@ -10055,7 +8447,7 @@
         <v>2011</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>130423</v>
@@ -10072,7 +8464,7 @@
         <v>2012</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>135734</v>
@@ -10089,7 +8481,7 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>143451</v>
@@ -10106,7 +8498,7 @@
         <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>148328</v>
@@ -10123,7 +8515,7 @@
         <v>2015</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>155757</v>
@@ -10140,7 +8532,7 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>160542</v>
@@ -10157,7 +8549,7 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>171454</v>
@@ -10174,7 +8566,7 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>174805</v>
@@ -10191,7 +8583,7 @@
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>185564</v>
@@ -10209,7 +8601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10218,21 +8610,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>6.1</v>
@@ -10246,7 +8638,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>6.6</v>
@@ -10260,7 +8652,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>6.8</v>
@@ -10274,7 +8666,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>7.1</v>
@@ -10288,7 +8680,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>6.9</v>
@@ -10302,7 +8694,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>6.9</v>
@@ -10316,7 +8708,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>6.4</v>
@@ -10330,7 +8722,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>7.5</v>
@@ -10344,7 +8736,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>6.1</v>
@@ -10358,7 +8750,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>6.2</v>
@@ -10372,7 +8764,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>6.3</v>
@@ -10386,7 +8778,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>6.8</v>
@@ -10400,7 +8792,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>7.6</v>
@@ -10414,7 +8806,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>7.3</v>
@@ -10428,7 +8820,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>7.2</v>
@@ -10442,7 +8834,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>6.5</v>
@@ -10456,7 +8848,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>6.4</v>
@@ -10470,7 +8862,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>6.2</v>
@@ -10484,7 +8876,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>6.6</v>
@@ -10498,7 +8890,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>7.1</v>
@@ -10512,7 +8904,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10526,7 +8918,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5.9</v>
@@ -10540,7 +8932,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>5.9</v>
@@ -10554,7 +8946,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>6.4</v>
@@ -10568,7 +8960,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>7.8</v>
@@ -10582,7 +8974,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>8.1999999999999993</v>
@@ -10596,7 +8988,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>7.5</v>
@@ -10610,7 +9002,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>7.1</v>
@@ -10624,7 +9016,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>6.3</v>
@@ -10638,7 +9030,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>6.1</v>
@@ -10652,7 +9044,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>6.3</v>
@@ -10666,7 +9058,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>6.6</v>
@@ -10680,7 +9072,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>5.3</v>
@@ -10694,7 +9086,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>5.2</v>
@@ -10708,7 +9100,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>5.7</v>
@@ -10722,7 +9114,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>5.9</v>
@@ -10736,7 +9128,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>6.5</v>
@@ -10750,7 +9142,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>6.3</v>
@@ -10764,7 +9156,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>6.2</v>
@@ -10778,7 +9170,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>5.9</v>
@@ -10792,7 +9184,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>5.8</v>
@@ -10806,7 +9198,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5.3</v>
@@ -10820,7 +9212,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>5.6</v>
@@ -10834,7 +9226,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>6.3</v>
@@ -10848,7 +9240,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>5.0999999999999996</v>
@@ -10862,7 +9254,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>5.0999999999999996</v>
@@ -10876,7 +9268,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>5.5</v>
@@ -10890,7 +9282,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>5.5</v>
@@ -10904,7 +9296,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>6.1</v>
@@ -10918,7 +9310,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>5.7</v>
@@ -10932,7 +9324,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>6.1</v>
@@ -10946,7 +9338,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>5.6</v>
@@ -10960,7 +9352,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>5.5</v>
@@ -10974,7 +9366,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>5.0999999999999996</v>
@@ -10988,7 +9380,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>5.5</v>
@@ -11002,7 +9394,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>5.9</v>
@@ -11016,7 +9408,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>5.2</v>
@@ -11030,7 +9422,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4.8</v>
@@ -11044,7 +9436,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>5.6</v>
@@ -11058,7 +9450,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>5.3</v>
@@ -11072,7 +9464,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -11086,7 +9478,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>5.9</v>
@@ -11100,7 +9492,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>5.3</v>
@@ -11114,7 +9506,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>5.2</v>
@@ -11128,7 +9520,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>5.5</v>
@@ -11142,7 +9534,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>4.9000000000000004</v>
@@ -11156,7 +9548,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>5.3</v>
@@ -11170,7 +9562,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>5.6</v>
@@ -11184,7 +9576,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>4.5999999999999996</v>
@@ -11198,7 +9590,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>4.7</v>
@@ -11212,7 +9604,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>4.8</v>
@@ -11226,7 +9618,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>4.3</v>
@@ -11240,7 +9632,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>5.2</v>
@@ -11254,7 +9646,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>5.7</v>
@@ -11268,7 +9660,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>5.6</v>
@@ -11282,7 +9674,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>5.6</v>
@@ -11296,7 +9688,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>5.4</v>
@@ -11310,7 +9702,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>4.7</v>
@@ -11324,7 +9716,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>5.3</v>
@@ -11338,7 +9730,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>5.3</v>
@@ -11352,7 +9744,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>4.8</v>
@@ -11366,7 +9758,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>5.2</v>
@@ -11380,7 +9772,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>5.3</v>
@@ -11394,7 +9786,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>5.6</v>
@@ -11408,7 +9800,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>6.1</v>
@@ -11422,7 +9814,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>6.4</v>
@@ -11436,7 +9828,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>5.8</v>
@@ -11450,7 +9842,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -11464,7 +9856,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>5.3</v>
@@ -11478,7 +9870,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>4.7</v>
@@ -11492,7 +9884,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>4.9000000000000004</v>
@@ -11506,7 +9898,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -11520,7 +9912,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>4.9000000000000004</v>
@@ -11534,7 +9926,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>5.2</v>
@@ -11548,7 +9940,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>5.4</v>
@@ -11562,7 +9954,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>5.3</v>
@@ -11576,7 +9968,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>5.3</v>
@@ -11590,7 +9982,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>5.0999999999999996</v>
@@ -11604,7 +9996,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>4.9000000000000004</v>
@@ -11618,7 +10010,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>4.7</v>
@@ -11632,7 +10024,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>4.8</v>
@@ -11646,7 +10038,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>4.0999999999999996</v>
@@ -11660,7 +10052,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>4.8</v>
@@ -11674,7 +10066,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>4.5999999999999996</v>
@@ -11688,7 +10080,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -11702,7 +10094,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>4.2</v>
@@ -11716,7 +10108,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>4.3</v>
@@ -11730,7 +10122,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>4.2</v>
@@ -11744,7 +10136,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>4.8</v>
@@ -11758,7 +10150,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>4.5999999999999996</v>
@@ -11772,7 +10164,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>4.5</v>
@@ -11786,7 +10178,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>4.7</v>
@@ -11800,7 +10192,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>4.4000000000000004</v>
@@ -11814,7 +10206,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>4.0999999999999996</v>
@@ -11828,7 +10220,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -11842,7 +10234,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>4.8</v>
@@ -11856,7 +10248,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>3.3</v>
@@ -11870,7 +10262,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>3.6</v>
@@ -11884,7 +10276,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>4.0999999999999996</v>
@@ -11898,7 +10290,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>3.7</v>
@@ -11912,7 +10304,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>4.4000000000000004</v>
@@ -11926,7 +10318,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>4.0999999999999996</v>
@@ -11940,7 +10332,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>3.9</v>
@@ -11954,7 +10346,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>4.0999999999999996</v>
@@ -11968,7 +10360,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>3.6</v>
@@ -11982,7 +10374,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>3.2</v>
@@ -11996,7 +10388,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>3.4</v>
@@ -12010,7 +10402,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>4.7</v>
@@ -12024,7 +10416,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>3.9</v>
@@ -12038,7 +10430,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>3.8</v>
@@ -12052,7 +10444,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>4.5</v>
@@ -12066,7 +10458,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>4</v>

--- a/Data/controlVariables.xlsx
+++ b/Data/controlVariables.xlsx
@@ -8,23 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuantitativeMethods_IB\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B17769-8A45-4C3F-B9BA-B8B73A738200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18736C40-4C9C-4252-906F-206C6F40D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RetailSales" sheetId="6" r:id="rId1"/>
     <sheet name="CPI Index" sheetId="3" r:id="rId2"/>
     <sheet name="ConsumerConfidence" sheetId="2" r:id="rId3"/>
     <sheet name="DisposableIncome" sheetId="4" r:id="rId4"/>
-    <sheet name="UnemployabilityIndex" sheetId="5" r:id="rId5"/>
+    <sheet name="UnemploymentRate" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="217">
   <si>
     <t>2009-01</t>
   </si>
@@ -522,6 +532,159 @@
   </si>
   <si>
     <t>2022-01</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02  </t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5890,7 +6055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6498,7 +6663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6511,7 +6676,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>135</v>
       </c>
       <c r="B1" t="s">
@@ -6525,1851 +6690,703 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>167</v>
       </c>
       <c r="B2">
-        <v>58.726621899999998</v>
+        <v>150.730794</v>
       </c>
       <c r="C2">
-        <v>60.646275799999998</v>
+        <v>113.26151</v>
       </c>
       <c r="D2">
-        <v>71.852060300000005</v>
+        <v>154.41615400000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>168</v>
       </c>
       <c r="B3">
-        <v>60.497148199999998</v>
+        <v>114.85759400000001</v>
       </c>
       <c r="C3">
-        <v>62.593442600000003</v>
+        <v>108.054284</v>
       </c>
       <c r="D3">
-        <v>60.932712799999997</v>
+        <v>150.18951799999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>169</v>
       </c>
       <c r="B4">
-        <v>58.054488599999999</v>
+        <v>133.311668</v>
       </c>
       <c r="C4">
-        <v>57.946206400000001</v>
+        <v>111.37869999999999</v>
       </c>
       <c r="D4">
-        <v>67.115819700000003</v>
+        <v>150.661542</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>170</v>
       </c>
       <c r="B5">
-        <v>77.202048399999995</v>
+        <v>119.203339</v>
       </c>
       <c r="C5">
-        <v>65.208664999999996</v>
+        <v>105.67980799999999</v>
       </c>
       <c r="D5">
-        <v>74.971955399999999</v>
+        <v>158.22405499999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>171</v>
       </c>
       <c r="B6">
-        <v>75.651746799999998</v>
+        <v>135.44415900000001</v>
       </c>
       <c r="C6">
-        <v>70.524927300000002</v>
+        <v>111.133118</v>
       </c>
       <c r="D6">
-        <v>98.785376200000002</v>
+        <v>157.089721</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>172</v>
       </c>
       <c r="B7">
-        <v>78.790410499999993</v>
+        <v>123.245806</v>
       </c>
       <c r="C7">
-        <v>80.878139899999994</v>
+        <v>109.131805</v>
       </c>
       <c r="D7">
-        <v>92.599220299999999</v>
+        <v>151.99696800000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>173</v>
       </c>
       <c r="B8">
-        <v>77.812114300000005</v>
+        <v>132.384604</v>
       </c>
       <c r="C8">
-        <v>85.486382500000005</v>
+        <v>102.77791499999999</v>
       </c>
       <c r="D8">
-        <v>96.364766700000004</v>
+        <v>157.323105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>174</v>
       </c>
       <c r="B9">
-        <v>83.204868200000007</v>
+        <v>119.97189299999999</v>
       </c>
       <c r="C9">
-        <v>99.510744299999999</v>
+        <v>106.942449</v>
       </c>
       <c r="D9">
-        <v>102.90745099999999</v>
+        <v>161.40942899999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>175</v>
       </c>
       <c r="B10">
-        <v>81.166604699999993</v>
+        <v>128.967906</v>
       </c>
       <c r="C10">
-        <v>103.408022</v>
+        <v>106.57586000000001</v>
       </c>
       <c r="D10">
-        <v>115.91197699999999</v>
+        <v>155.044252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>176</v>
       </c>
       <c r="B11">
-        <v>88.084710799999996</v>
+        <v>140.02165299999999</v>
       </c>
       <c r="C11">
-        <v>105.61289600000001</v>
+        <v>112.867524</v>
       </c>
       <c r="D11">
-        <v>100.77102499999999</v>
+        <v>151.82378299999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>177</v>
       </c>
       <c r="B12">
-        <v>73.724111899999997</v>
+        <v>135.07551699999999</v>
       </c>
       <c r="C12">
-        <v>90.241224299999999</v>
+        <v>106.751531</v>
       </c>
       <c r="D12">
-        <v>101.881109</v>
+        <v>143.18241800000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>178</v>
       </c>
       <c r="B13">
-        <v>71.814409699999999</v>
+        <v>137.88469499999999</v>
       </c>
       <c r="C13">
-        <v>100.185962</v>
+        <v>90.4435802</v>
       </c>
       <c r="D13">
-        <v>102.149131</v>
+        <v>145.14600300000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>179</v>
       </c>
       <c r="B14">
-        <v>98.085519899999994</v>
+        <v>118.016943</v>
       </c>
       <c r="C14">
-        <v>119.18898299999999</v>
+        <v>106.49175</v>
       </c>
       <c r="D14">
-        <v>116.897361</v>
+        <v>156.81856500000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>180</v>
       </c>
       <c r="B15">
-        <v>81.577908800000003</v>
+        <v>114.436323</v>
       </c>
       <c r="C15">
-        <v>104.540324</v>
+        <v>100.100708</v>
       </c>
       <c r="D15">
-        <v>116.37051200000001</v>
+        <v>160.191417</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>181</v>
       </c>
       <c r="B16">
-        <v>111.777098</v>
+        <v>136.14836099999999</v>
       </c>
       <c r="C16">
-        <v>100.31344300000001</v>
+        <v>107.290102</v>
       </c>
       <c r="D16">
-        <v>117.532314</v>
+        <v>166.119347</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>182</v>
       </c>
       <c r="B17">
-        <v>76.689361300000002</v>
+        <v>128.11382800000001</v>
       </c>
       <c r="C17">
-        <v>105.80927</v>
+        <v>99.388202300000003</v>
       </c>
       <c r="D17">
-        <v>95.062246500000001</v>
+        <v>161.313253</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>183</v>
       </c>
       <c r="B18">
-        <v>88.263988800000007</v>
+        <v>156.48472899999999</v>
       </c>
       <c r="C18">
-        <v>106.017684</v>
+        <v>103.529859</v>
       </c>
       <c r="D18">
-        <v>113.127179</v>
+        <v>163.259694</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>184</v>
       </c>
       <c r="B19">
-        <v>75.405648799999994</v>
+        <v>143.47784999999999</v>
       </c>
       <c r="C19">
-        <v>88.724850599999996</v>
+        <v>111.349249</v>
       </c>
       <c r="D19">
-        <v>116.168347</v>
+        <v>159.83529300000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>185</v>
       </c>
       <c r="B20">
-        <v>61.863320600000002</v>
+        <v>129.80692099999999</v>
       </c>
       <c r="C20">
-        <v>87.118999599999995</v>
+        <v>109.63009</v>
       </c>
       <c r="D20">
-        <v>112.57120399999999</v>
+        <v>169.4967</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>186</v>
       </c>
       <c r="B21">
-        <v>73.547715999999994</v>
+        <v>126.26011200000001</v>
       </c>
       <c r="C21">
-        <v>82.019428500000004</v>
+        <v>103.497069</v>
       </c>
       <c r="D21">
-        <v>110.22884999999999</v>
+        <v>172.68085600000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>187</v>
       </c>
       <c r="B22">
-        <v>63.329510599999999</v>
+        <v>121.4451</v>
       </c>
       <c r="C22">
-        <v>80.486086999999998</v>
+        <v>104.757615</v>
       </c>
       <c r="D22">
-        <v>110.129954</v>
+        <v>157.37886900000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>188</v>
       </c>
       <c r="B23">
-        <v>66.209931600000004</v>
+        <v>122.354741</v>
       </c>
       <c r="C23">
-        <v>81.251574099999999</v>
+        <v>96.246300300000001</v>
       </c>
       <c r="D23">
-        <v>112.72629999999999</v>
+        <v>163.95571200000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>189</v>
       </c>
       <c r="B24">
-        <v>83.036887399999998</v>
+        <v>132.96228099999999</v>
       </c>
       <c r="C24">
-        <v>92.856285499999998</v>
+        <v>105.82375999999999</v>
       </c>
       <c r="D24">
-        <v>107.629677</v>
+        <v>163.37527399999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>91.292171300000007</v>
+        <v>108.28752900000001</v>
       </c>
       <c r="C25">
-        <v>83.438675099999998</v>
+        <v>93.024397199999996</v>
       </c>
       <c r="D25">
-        <v>101.181359</v>
+        <v>165.711985</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>191</v>
       </c>
       <c r="B26">
-        <v>87.683521099999993</v>
+        <v>116.63887699999999</v>
       </c>
       <c r="C26">
-        <v>102.91785</v>
+        <v>107.690162</v>
       </c>
       <c r="D26">
-        <v>103.84589800000001</v>
+        <v>173.149079</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>192</v>
       </c>
       <c r="B27">
-        <v>85.704938999999996</v>
+        <v>138.77984900000001</v>
       </c>
       <c r="C27">
-        <v>105.121349</v>
+        <v>107.915553</v>
       </c>
       <c r="D27">
-        <v>108.853579</v>
+        <v>167.90928299999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>193</v>
       </c>
       <c r="B28">
-        <v>74.917247399999994</v>
+        <v>92.023944099999994</v>
       </c>
       <c r="C28">
-        <v>88.143271900000002</v>
+        <v>81.207696100000007</v>
       </c>
       <c r="D28">
-        <v>115.358856</v>
+        <v>136.69912099999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>194</v>
       </c>
       <c r="B29">
-        <v>95.061588700000001</v>
+        <v>55.149619399999999</v>
       </c>
       <c r="C29">
-        <v>92.0114284</v>
+        <v>37.419336800000004</v>
       </c>
       <c r="D29">
-        <v>113.963354</v>
+        <v>77.445026200000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>195</v>
       </c>
       <c r="B30">
-        <v>77.202891800000003</v>
+        <v>68.184976599999999</v>
       </c>
       <c r="C30">
-        <v>95.938107299999999</v>
+        <v>58.332049699999999</v>
       </c>
       <c r="D30">
-        <v>104.08060399999999</v>
+        <v>91.054060899999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>196</v>
       </c>
       <c r="B31">
-        <v>74.360550799999999</v>
+        <v>91.246717799999999</v>
       </c>
       <c r="C31">
-        <v>92.7182447</v>
+        <v>67.611345499999999</v>
       </c>
       <c r="D31">
-        <v>106.254577</v>
+        <v>113.54157600000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>197</v>
       </c>
       <c r="B32">
-        <v>71.224699599999994</v>
+        <v>97.263731100000001</v>
       </c>
       <c r="C32">
-        <v>86.655317999999994</v>
+        <v>71.406638200000003</v>
       </c>
       <c r="D32">
-        <v>110.69414999999999</v>
+        <v>113.175912</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>198</v>
       </c>
       <c r="B33">
-        <v>72.657233399999996</v>
+        <v>86.469380700000002</v>
       </c>
       <c r="C33">
-        <v>80.501586399999994</v>
+        <v>75.307980299999997</v>
       </c>
       <c r="D33">
-        <v>90.573143599999995</v>
+        <v>100.209204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>199</v>
       </c>
       <c r="B34">
-        <v>76.566718300000005</v>
+        <v>84.717286200000004</v>
       </c>
       <c r="C34">
-        <v>81.890657099999999</v>
+        <v>72.955167799999998</v>
       </c>
       <c r="D34">
-        <v>93.053585600000005</v>
+        <v>120.43303</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>200</v>
       </c>
       <c r="B35">
-        <v>68.825458299999994</v>
+        <v>96.951152699999994</v>
       </c>
       <c r="C35">
-        <v>70.106200400000006</v>
+        <v>64.8342344</v>
       </c>
       <c r="D35">
-        <v>89.187598100000002</v>
+        <v>95.465509900000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>201</v>
       </c>
       <c r="B36">
-        <v>69.855502299999998</v>
+        <v>78.6047832</v>
       </c>
       <c r="C36">
-        <v>79.565843799999996</v>
+        <v>66.606921299999996</v>
       </c>
       <c r="D36">
-        <v>92.873330999999993</v>
+        <v>105.77727400000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>202</v>
       </c>
       <c r="B37">
-        <v>57.566637900000003</v>
+        <v>106.630889</v>
       </c>
       <c r="C37">
-        <v>71.180321500000005</v>
+        <v>80.553597300000007</v>
       </c>
       <c r="D37">
-        <v>86.635944499999994</v>
+        <v>103.833932</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>203</v>
       </c>
       <c r="B38">
-        <v>62.709081900000001</v>
+        <v>109.744195</v>
       </c>
       <c r="C38">
-        <v>80.771433599999995</v>
+        <v>79.724780499999994</v>
       </c>
       <c r="D38">
-        <v>79.496980300000004</v>
+        <v>112.913067</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>204</v>
       </c>
       <c r="B39">
-        <v>63.582895100000002</v>
+        <v>103.209293</v>
       </c>
       <c r="C39">
-        <v>77.493596800000006</v>
+        <v>86.922621899999996</v>
       </c>
       <c r="D39">
-        <v>94.484748400000001</v>
+        <v>118.901841</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
+      <c r="A40" t="s">
+        <v>205</v>
       </c>
       <c r="B40">
-        <v>81.951130699999993</v>
+        <v>135.32693900000001</v>
       </c>
       <c r="C40">
-        <v>82.637198600000005</v>
+        <v>99.288373399999998</v>
       </c>
       <c r="D40">
-        <v>88.253972399999995</v>
+        <v>128.56508700000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
+      <c r="A41" t="s">
+        <v>206</v>
       </c>
       <c r="B41">
-        <v>72.871242899999999</v>
+        <v>117.266598</v>
       </c>
       <c r="C41">
-        <v>73.243902000000006</v>
+        <v>93.674944300000007</v>
       </c>
       <c r="D41">
-        <v>92.155507499999999</v>
+        <v>126.06726</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>207</v>
       </c>
       <c r="B42">
-        <v>74.041164899999998</v>
+        <v>136.88046499999999</v>
       </c>
       <c r="C42">
-        <v>83.391653300000002</v>
+        <v>97.934752000000003</v>
       </c>
       <c r="D42">
-        <v>103.22430900000001</v>
+        <v>132.327698</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
+      <c r="A43" t="s">
+        <v>208</v>
       </c>
       <c r="B43">
-        <v>72.524398300000001</v>
+        <v>135.38888299999999</v>
       </c>
       <c r="C43">
-        <v>70.018455200000005</v>
+        <v>113.688654</v>
       </c>
       <c r="D43">
-        <v>102.368291</v>
+        <v>142.80810099999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>209</v>
       </c>
       <c r="B44">
-        <v>61.925928300000002</v>
+        <v>135.327338</v>
       </c>
       <c r="C44">
-        <v>74.758708999999996</v>
+        <v>120.413935</v>
       </c>
       <c r="D44">
-        <v>109.45358</v>
+        <v>146.585508</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>210</v>
       </c>
       <c r="B45">
-        <v>71.262520499999994</v>
+        <v>143.74472600000001</v>
       </c>
       <c r="C45">
-        <v>76.050455900000003</v>
+        <v>115.035177</v>
       </c>
       <c r="D45">
-        <v>95.789146500000001</v>
+        <v>127.557686</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>211</v>
       </c>
       <c r="B46">
-        <v>98.925437599999995</v>
+        <v>129.44686799999999</v>
       </c>
       <c r="C46">
-        <v>81.058769799999993</v>
+        <v>106.736392</v>
       </c>
       <c r="D46">
-        <v>108.968402</v>
+        <v>124.286244</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>212</v>
       </c>
       <c r="B47">
-        <v>90.323838100000003</v>
+        <v>143.80338699999999</v>
       </c>
       <c r="C47">
-        <v>83.297769500000001</v>
+        <v>106.549235</v>
       </c>
       <c r="D47">
-        <v>100.971132</v>
+        <v>133.60144</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>213</v>
       </c>
       <c r="B48">
-        <v>76.674797900000002</v>
+        <v>137.61666</v>
       </c>
       <c r="C48">
-        <v>90.886891000000006</v>
+        <v>107.42606000000001</v>
       </c>
       <c r="D48">
-        <v>91.058856500000005</v>
+        <v>123.374151</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>214</v>
       </c>
       <c r="B49">
-        <v>95.993675400000001</v>
+        <v>128.97742600000001</v>
       </c>
       <c r="C49">
-        <v>81.129145899999997</v>
+        <v>101.851766</v>
       </c>
       <c r="D49">
-        <v>85.503338499999998</v>
+        <v>117.21999099999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>215</v>
       </c>
       <c r="B50">
-        <v>87.888933699999995</v>
+        <v>126.335773</v>
       </c>
       <c r="C50">
-        <v>90.978959799999998</v>
+        <v>100.417686</v>
       </c>
       <c r="D50">
-        <v>101.240832</v>
+        <v>108.17887500000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
+      <c r="A51" t="s">
+        <v>216</v>
       </c>
       <c r="B51">
-        <v>90.179074299999996</v>
+        <v>105.929166</v>
       </c>
       <c r="C51">
-        <v>90.009025600000001</v>
+        <v>90.705866799999995</v>
       </c>
       <c r="D51">
-        <v>94.577080300000006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>90.137055099999998</v>
-      </c>
-      <c r="C52">
-        <v>92.1840045</v>
-      </c>
-      <c r="D52">
-        <v>96.564126400000006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>95.166076700000005</v>
-      </c>
-      <c r="C53">
-        <v>74.377989200000002</v>
-      </c>
-      <c r="D53">
-        <v>90.814079500000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>92.272507099999999</v>
-      </c>
-      <c r="C54">
-        <v>87.868404100000006</v>
-      </c>
-      <c r="D54">
-        <v>106.735304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>86.816333700000001</v>
-      </c>
-      <c r="C55">
-        <v>92.001074900000006</v>
-      </c>
-      <c r="D55">
-        <v>101.43192000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>94.806265300000007</v>
-      </c>
-      <c r="C56">
-        <v>91.275069900000005</v>
-      </c>
-      <c r="D56">
-        <v>104.444034</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>79.470996200000002</v>
-      </c>
-      <c r="C57">
-        <v>98.620505899999998</v>
-      </c>
-      <c r="D57">
-        <v>108.594391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>109.950639</v>
-      </c>
-      <c r="C58">
-        <v>103.479822</v>
-      </c>
-      <c r="D58">
-        <v>109.27087400000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>107.45625800000001</v>
-      </c>
-      <c r="C59">
-        <v>100.054861</v>
-      </c>
-      <c r="D59">
-        <v>111.116544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>86.986426899999998</v>
-      </c>
-      <c r="C60">
-        <v>102.248006</v>
-      </c>
-      <c r="D60">
-        <v>102.064167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>100.147721</v>
-      </c>
-      <c r="C61">
-        <v>83.830005</v>
-      </c>
-      <c r="D61">
-        <v>96.303788299999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>82.633176399999996</v>
-      </c>
-      <c r="C62">
-        <v>90.308988900000003</v>
-      </c>
-      <c r="D62">
-        <v>91.464699899999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>89.010852600000007</v>
-      </c>
-      <c r="C63">
-        <v>98.232610699999995</v>
-      </c>
-      <c r="D63">
-        <v>101.732332</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>101.02043500000001</v>
-      </c>
-      <c r="C64">
-        <v>105.927436</v>
-      </c>
-      <c r="D64">
-        <v>104.87154099999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>93.408741399999997</v>
-      </c>
-      <c r="C65">
-        <v>103.641648</v>
-      </c>
-      <c r="D65">
-        <v>122.141717</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>100.500367</v>
-      </c>
-      <c r="C66">
-        <v>91.852207100000001</v>
-      </c>
-      <c r="D66">
-        <v>109.657641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>105.052497</v>
-      </c>
-      <c r="C67">
-        <v>98.712634899999998</v>
-      </c>
-      <c r="D67">
-        <v>98.827351899999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>93.733831300000006</v>
-      </c>
-      <c r="C68">
-        <v>91.231286800000007</v>
-      </c>
-      <c r="D68">
-        <v>111.93956300000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>103.758032</v>
-      </c>
-      <c r="C69">
-        <v>99.771786800000001</v>
-      </c>
-      <c r="D69">
-        <v>116.276915</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>107.579943</v>
-      </c>
-      <c r="C70">
-        <v>103.86152199999999</v>
-      </c>
-      <c r="D70">
-        <v>88.937503800000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>97.649630900000005</v>
-      </c>
-      <c r="C71">
-        <v>103.99337800000001</v>
-      </c>
-      <c r="D71">
-        <v>81.8991209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>98.205088399999994</v>
-      </c>
-      <c r="C72">
-        <v>99.691080299999996</v>
-      </c>
-      <c r="D72">
-        <v>89.639740200000006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>127.447405</v>
-      </c>
-      <c r="C73">
-        <v>112.77542099999999</v>
-      </c>
-      <c r="D73">
-        <v>82.611875299999994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>121.287316</v>
-      </c>
-      <c r="C74">
-        <v>116.581085</v>
-      </c>
-      <c r="D74">
-        <v>98.970891600000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>112.626728</v>
-      </c>
-      <c r="C75">
-        <v>95.798396100000005</v>
-      </c>
-      <c r="D75">
-        <v>102.501317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>117.964218</v>
-      </c>
-      <c r="C76">
-        <v>122.847988</v>
-      </c>
-      <c r="D76">
-        <v>105.77449799999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>114.472224</v>
-      </c>
-      <c r="C77">
-        <v>100.24109900000001</v>
-      </c>
-      <c r="D77">
-        <v>97.012723100000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>119.784796</v>
-      </c>
-      <c r="C78">
-        <v>97.711624499999999</v>
-      </c>
-      <c r="D78">
-        <v>108.97494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>112.38861900000001</v>
-      </c>
-      <c r="C79">
-        <v>109.486977</v>
-      </c>
-      <c r="D79">
-        <v>104.661393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>106.59498000000001</v>
-      </c>
-      <c r="C80">
-        <v>102.615968</v>
-      </c>
-      <c r="D80">
-        <v>107.243571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>101.884623</v>
-      </c>
-      <c r="C81">
-        <v>95.5994271</v>
-      </c>
-      <c r="D81">
-        <v>105.11531100000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>112.60235900000001</v>
-      </c>
-      <c r="C82">
-        <v>89.571611500000003</v>
-      </c>
-      <c r="D82">
-        <v>96.368971700000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>124.209264</v>
-      </c>
-      <c r="C83">
-        <v>100.82422699999999</v>
-      </c>
-      <c r="D83">
-        <v>92.753845799999993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>133.01334499999999</v>
-      </c>
-      <c r="C84">
-        <v>105.969306</v>
-      </c>
-      <c r="D84">
-        <v>109.265914</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>115.655294</v>
-      </c>
-      <c r="C85">
-        <v>96.245973000000006</v>
-      </c>
-      <c r="D85">
-        <v>104.667861</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>91.980571999999995</v>
-      </c>
-      <c r="C86">
-        <v>84.219037700000001</v>
-      </c>
-      <c r="D86">
-        <v>89.269550300000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>95.739607199999995</v>
-      </c>
-      <c r="C87">
-        <v>91.793376699999996</v>
-      </c>
-      <c r="D87">
-        <v>93.414416799999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>111.436712</v>
-      </c>
-      <c r="C88">
-        <v>97.7413332</v>
-      </c>
-      <c r="D88">
-        <v>100.33890100000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>108.15117600000001</v>
-      </c>
-      <c r="C89">
-        <v>105.009141</v>
-      </c>
-      <c r="D89">
-        <v>104.64412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>124.87451</v>
-      </c>
-      <c r="C90">
-        <v>103.308712</v>
-      </c>
-      <c r="D90">
-        <v>125.87576799999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>111.956442</v>
-      </c>
-      <c r="C91">
-        <v>102.748468</v>
-      </c>
-      <c r="D91">
-        <v>116.426816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>128.47786600000001</v>
-      </c>
-      <c r="C92">
-        <v>103.267393</v>
-      </c>
-      <c r="D92">
-        <v>126.19560300000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>119.854316</v>
-      </c>
-      <c r="C93">
-        <v>99.180381999999994</v>
-      </c>
-      <c r="D93">
-        <v>128.132304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>123.516046</v>
-      </c>
-      <c r="C94">
-        <v>101.72394799999999</v>
-      </c>
-      <c r="D94">
-        <v>129.038284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>114.798962</v>
-      </c>
-      <c r="C95">
-        <v>101.154647</v>
-      </c>
-      <c r="D95">
-        <v>119.95897100000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>130.56337300000001</v>
-      </c>
-      <c r="C96">
-        <v>101.09667899999999</v>
-      </c>
-      <c r="D96">
-        <v>117.277289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>123.225864</v>
-      </c>
-      <c r="C97">
-        <v>101.655379</v>
-      </c>
-      <c r="D97">
-        <v>121.066261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>124.135907</v>
-      </c>
-      <c r="C98">
-        <v>98.906639699999999</v>
-      </c>
-      <c r="D98">
-        <v>121.304766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>126.383517</v>
-      </c>
-      <c r="C99">
-        <v>109.43005599999999</v>
-      </c>
-      <c r="D99">
-        <v>135.24196599999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>128.67569599999999</v>
-      </c>
-      <c r="C100">
-        <v>104.061887</v>
-      </c>
-      <c r="D100">
-        <v>137.94507999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>113.519998</v>
-      </c>
-      <c r="C101">
-        <v>106.20923999999999</v>
-      </c>
-      <c r="D101">
-        <v>141.30334500000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>136.19877199999999</v>
-      </c>
-      <c r="C102">
-        <v>102.370377</v>
-      </c>
-      <c r="D102">
-        <v>146.173993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>130.973525</v>
-      </c>
-      <c r="C103">
-        <v>100.589431</v>
-      </c>
-      <c r="D103">
-        <v>140.14658499999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>118.04156500000001</v>
-      </c>
-      <c r="C104">
-        <v>113.357349</v>
-      </c>
-      <c r="D104">
-        <v>142.60522499999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>135.97474299999999</v>
-      </c>
-      <c r="C105">
-        <v>118.49805000000001</v>
-      </c>
-      <c r="D105">
-        <v>147.081763</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>107.568467</v>
-      </c>
-      <c r="C106">
-        <v>112.504761</v>
-      </c>
-      <c r="D106">
-        <v>141.00532999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>134.66173499999999</v>
-      </c>
-      <c r="C107">
-        <v>112.192352</v>
-      </c>
-      <c r="D107">
-        <v>144.50157200000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>144.82789700000001</v>
-      </c>
-      <c r="C108">
-        <v>110.472486</v>
-      </c>
-      <c r="D108">
-        <v>158.58488199999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>157.41670099999999</v>
-      </c>
-      <c r="C109">
-        <v>123.452567</v>
-      </c>
-      <c r="D109">
-        <v>156.72892400000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>150.730794</v>
-      </c>
-      <c r="C110">
-        <v>113.26151</v>
-      </c>
-      <c r="D110">
-        <v>154.41615400000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>114.85759400000001</v>
-      </c>
-      <c r="C111">
-        <v>108.054284</v>
-      </c>
-      <c r="D111">
-        <v>150.18951799999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>133.311668</v>
-      </c>
-      <c r="C112">
-        <v>111.37869999999999</v>
-      </c>
-      <c r="D112">
-        <v>150.661542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>119.203339</v>
-      </c>
-      <c r="C113">
-        <v>105.67980799999999</v>
-      </c>
-      <c r="D113">
-        <v>158.22405499999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>135.44415900000001</v>
-      </c>
-      <c r="C114">
-        <v>111.133118</v>
-      </c>
-      <c r="D114">
-        <v>157.089721</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>123.245806</v>
-      </c>
-      <c r="C115">
-        <v>109.131805</v>
-      </c>
-      <c r="D115">
-        <v>151.99696800000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>132.384604</v>
-      </c>
-      <c r="C116">
-        <v>102.77791499999999</v>
-      </c>
-      <c r="D116">
-        <v>157.323105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>119.97189299999999</v>
-      </c>
-      <c r="C117">
-        <v>106.942449</v>
-      </c>
-      <c r="D117">
-        <v>161.40942899999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>128.967906</v>
-      </c>
-      <c r="C118">
-        <v>106.57586000000001</v>
-      </c>
-      <c r="D118">
-        <v>155.044252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>140.02165299999999</v>
-      </c>
-      <c r="C119">
-        <v>112.867524</v>
-      </c>
-      <c r="D119">
-        <v>151.82378299999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>135.07551699999999</v>
-      </c>
-      <c r="C120">
-        <v>106.751531</v>
-      </c>
-      <c r="D120">
-        <v>143.18241800000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>137.88469499999999</v>
-      </c>
-      <c r="C121">
-        <v>90.4435802</v>
-      </c>
-      <c r="D121">
-        <v>145.14600300000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>118.016943</v>
-      </c>
-      <c r="C122">
-        <v>106.49175</v>
-      </c>
-      <c r="D122">
-        <v>156.81856500000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>114.436323</v>
-      </c>
-      <c r="C123">
-        <v>100.100708</v>
-      </c>
-      <c r="D123">
-        <v>160.191417</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>136.14836099999999</v>
-      </c>
-      <c r="C124">
-        <v>107.290102</v>
-      </c>
-      <c r="D124">
-        <v>166.119347</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>128.11382800000001</v>
-      </c>
-      <c r="C125">
-        <v>99.388202300000003</v>
-      </c>
-      <c r="D125">
-        <v>161.313253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>156.48472899999999</v>
-      </c>
-      <c r="C126">
-        <v>103.529859</v>
-      </c>
-      <c r="D126">
-        <v>163.259694</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>143.47784999999999</v>
-      </c>
-      <c r="C127">
-        <v>111.349249</v>
-      </c>
-      <c r="D127">
-        <v>159.83529300000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>129.80692099999999</v>
-      </c>
-      <c r="C128">
-        <v>109.63009</v>
-      </c>
-      <c r="D128">
-        <v>169.4967</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>126.26011200000001</v>
-      </c>
-      <c r="C129">
-        <v>103.497069</v>
-      </c>
-      <c r="D129">
-        <v>172.68085600000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>121.4451</v>
-      </c>
-      <c r="C130">
-        <v>104.757615</v>
-      </c>
-      <c r="D130">
-        <v>157.37886900000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>122.354741</v>
-      </c>
-      <c r="C131">
-        <v>96.246300300000001</v>
-      </c>
-      <c r="D131">
-        <v>163.95571200000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>132.96228099999999</v>
-      </c>
-      <c r="C132">
-        <v>105.82375999999999</v>
-      </c>
-      <c r="D132">
-        <v>163.37527399999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>108.28752900000001</v>
-      </c>
-      <c r="C133">
-        <v>93.024397199999996</v>
-      </c>
-      <c r="D133">
-        <v>165.711985</v>
+        <v>118.36266999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8379,7 +7396,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8595,6 +7612,40 @@
         <v>261178</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>190943</v>
+      </c>
+      <c r="D13">
+        <v>508666.5</v>
+      </c>
+      <c r="E13">
+        <v>267574.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>193633</v>
+      </c>
+      <c r="D14">
+        <v>513655.75</v>
+      </c>
+      <c r="E14">
+        <v>270772.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8602,9 +7653,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8624,1850 +7675,576 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B2">
-        <v>6.1</v>
+        <v>2262.1999999999998</v>
       </c>
       <c r="C2">
-        <v>7.2</v>
+        <v>6275.3</v>
       </c>
       <c r="D2">
-        <v>8.1999999999999993</v>
+        <v>3699.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B3">
-        <v>6.6</v>
+        <v>2273.1999999999998</v>
       </c>
       <c r="C3">
-        <v>7.7</v>
+        <v>6295.5</v>
       </c>
       <c r="D3">
-        <v>8.1999999999999993</v>
+        <v>3710.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B4">
-        <v>6.8</v>
+        <v>2271.5</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>6292.6</v>
       </c>
       <c r="D4">
-        <v>8.8000000000000007</v>
+        <v>3693.7000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>7.1</v>
+        <v>2263</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>6244.5</v>
       </c>
       <c r="D5">
-        <v>8.6</v>
+        <v>3649.2000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>6.9</v>
+        <v>2281.2999999999997</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>6264.7</v>
       </c>
       <c r="D6">
-        <v>7.3</v>
+        <v>3666.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B7">
-        <v>6.9</v>
+        <v>2301.9</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>6234.7999999999993</v>
       </c>
       <c r="D7">
-        <v>6.6</v>
+        <v>3652.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B8">
-        <v>6.4</v>
+        <v>2298.9</v>
       </c>
       <c r="C8">
-        <v>8.3000000000000007</v>
+        <v>6301.1</v>
       </c>
       <c r="D8">
-        <v>7.3</v>
+        <v>3707.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>7.5</v>
+        <v>2324.1999999999998</v>
       </c>
       <c r="C9">
-        <v>8.6999999999999993</v>
+        <v>6366.9000000000005</v>
       </c>
       <c r="D9">
-        <v>7.6</v>
+        <v>3750.8999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="B10">
-        <v>6.1</v>
+        <v>2337.6999999999998</v>
       </c>
       <c r="C10">
-        <v>7.2</v>
+        <v>6377.7</v>
       </c>
       <c r="D10">
-        <v>6.7</v>
+        <v>3771.1000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B11">
-        <v>6.2</v>
+        <v>2305.6</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>6296</v>
       </c>
       <c r="D11">
-        <v>6.6</v>
+        <v>3731.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B12">
-        <v>6.3</v>
+        <v>2294.5</v>
       </c>
       <c r="C12">
-        <v>7.4</v>
+        <v>6335.3</v>
       </c>
       <c r="D12">
-        <v>6.9</v>
+        <v>3739.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B13">
-        <v>6.8</v>
+        <v>2327.5</v>
       </c>
       <c r="C13">
-        <v>7.2</v>
+        <v>6495.2999999999993</v>
       </c>
       <c r="D13">
-        <v>7.3</v>
+        <v>3795.7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="B14">
-        <v>7.6</v>
+        <v>2332.3000000000002</v>
       </c>
       <c r="C14">
-        <v>7.9</v>
+        <v>6490.9000000000005</v>
       </c>
       <c r="D14">
-        <v>8.1</v>
+        <v>3778.2000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B15">
-        <v>7.3</v>
+        <v>2312.8000000000002</v>
       </c>
       <c r="C15">
-        <v>7.7</v>
+        <v>6494.9</v>
       </c>
       <c r="D15">
-        <v>7.8</v>
+        <v>3726.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B16">
-        <v>7.2</v>
+        <v>2303.1999999999998</v>
       </c>
       <c r="C16">
-        <v>8.1</v>
+        <v>6502</v>
       </c>
       <c r="D16">
-        <v>7.9</v>
+        <v>3734.4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="B17">
-        <v>6.5</v>
+        <v>2282.3000000000002</v>
       </c>
       <c r="C17">
-        <v>7.4</v>
+        <v>6437.4</v>
       </c>
       <c r="D17">
-        <v>7.6</v>
+        <v>3696.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B18">
-        <v>6.4</v>
+        <v>2284.7999999999997</v>
       </c>
       <c r="C18">
-        <v>7.3</v>
+        <v>6444.3</v>
       </c>
       <c r="D18">
-        <v>6.6</v>
+        <v>3706.6000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B19">
-        <v>6.2</v>
+        <v>2204.6999999999998</v>
       </c>
       <c r="C19">
-        <v>6.6</v>
+        <v>6173.2</v>
       </c>
       <c r="D19">
-        <v>6.1</v>
+        <v>3532.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B20">
-        <v>6.6</v>
+        <v>2017.7</v>
       </c>
       <c r="C20">
-        <v>7.7</v>
+        <v>5715.5</v>
       </c>
       <c r="D20">
-        <v>7.1</v>
+        <v>3137.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B21">
-        <v>7.1</v>
+        <v>2054.9</v>
       </c>
       <c r="C21">
-        <v>8.4</v>
+        <v>5725</v>
       </c>
       <c r="D21">
-        <v>7.7</v>
+        <v>3399.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>2143.2000000000003</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6021.5</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3598.1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B23">
-        <v>5.9</v>
+        <v>2155.9</v>
       </c>
       <c r="C23">
-        <v>6.1</v>
+        <v>6030.5</v>
       </c>
       <c r="D23">
-        <v>6.5</v>
+        <v>3591.6000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B24">
-        <v>5.9</v>
+        <v>2165.2999999999997</v>
       </c>
       <c r="C24">
-        <v>6.3</v>
+        <v>6130.5</v>
       </c>
       <c r="D24">
-        <v>6.7</v>
+        <v>3607.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="B25">
-        <v>6.4</v>
+        <v>2247.3000000000002</v>
       </c>
       <c r="C25">
-        <v>6.4</v>
+        <v>6323.1</v>
       </c>
       <c r="D25">
-        <v>6.5</v>
+        <v>3711.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="B26">
-        <v>7.8</v>
+        <v>2275.4</v>
       </c>
       <c r="C26">
-        <v>7.1</v>
+        <v>6345.6</v>
       </c>
       <c r="D26">
-        <v>7.7</v>
+        <v>3715.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B27">
-        <v>8.1999999999999993</v>
+        <v>2284.3000000000002</v>
       </c>
       <c r="C27">
-        <v>6.9</v>
+        <v>6367.9000000000005</v>
       </c>
       <c r="D27">
-        <v>7.5</v>
+        <v>3693.7000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B28">
-        <v>7.5</v>
+        <v>2287</v>
       </c>
       <c r="C28">
-        <v>7.2</v>
+        <v>6344.8</v>
       </c>
       <c r="D28">
-        <v>7.6</v>
+        <v>3677.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="B29">
-        <v>7.1</v>
+        <v>2260.3000000000002</v>
       </c>
       <c r="C29">
-        <v>6.7</v>
+        <v>6209.2</v>
       </c>
       <c r="D29">
-        <v>7.7</v>
+        <v>3570.7999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B30">
-        <v>6.3</v>
+        <v>2280.9</v>
       </c>
       <c r="C30">
-        <v>6.4</v>
+        <v>6292.3</v>
       </c>
       <c r="D30">
-        <v>6.4</v>
+        <v>3641.8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="B31">
-        <v>6.1</v>
+        <v>2294.5</v>
       </c>
       <c r="C31">
-        <v>6.3</v>
+        <v>6368.7</v>
       </c>
       <c r="D31">
-        <v>6.1</v>
+        <v>3654.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="B32">
-        <v>6.3</v>
+        <v>2285.2000000000003</v>
       </c>
       <c r="C32">
-        <v>6.7</v>
+        <v>6343.2999999999993</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>3669.7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="B33">
-        <v>6.6</v>
+        <v>2295.3999999999996</v>
       </c>
       <c r="C33">
-        <v>7.2</v>
+        <v>6372.2</v>
       </c>
       <c r="D33">
-        <v>7.2</v>
+        <v>3710.7999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="B34">
-        <v>5.3</v>
+        <v>2316.5</v>
       </c>
       <c r="C34">
-        <v>5.9</v>
+        <v>6412.5999999999995</v>
       </c>
       <c r="D34">
-        <v>5.7</v>
+        <v>3759.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="B35">
-        <v>5.2</v>
+        <v>2298.5</v>
       </c>
       <c r="C35">
-        <v>5.9</v>
+        <v>6354.6</v>
       </c>
       <c r="D35">
-        <v>6.3</v>
+        <v>3699.6000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B36">
-        <v>5.7</v>
+        <v>2311.3000000000002</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>6381.7</v>
       </c>
       <c r="D36">
-        <v>6.8</v>
+        <v>3696.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="B37">
-        <v>5.9</v>
+        <v>2348.2000000000003</v>
       </c>
       <c r="C37">
-        <v>5.8</v>
+        <v>6547.1</v>
       </c>
       <c r="D37">
-        <v>7.9</v>
+        <v>3792.2000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="B38">
-        <v>6.5</v>
+        <v>2358.3000000000002</v>
       </c>
       <c r="C38">
-        <v>6.9</v>
+        <v>6564.5</v>
       </c>
       <c r="D38">
-        <v>8.6</v>
+        <v>3794.7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B39">
-        <v>6.3</v>
+        <v>2355.1</v>
       </c>
       <c r="C39">
-        <v>6.3</v>
+        <v>6643.8</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>3800.9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="B40">
-        <v>6.2</v>
+        <v>2345.3999999999996</v>
       </c>
       <c r="C40">
-        <v>6.8</v>
+        <v>6652.6</v>
       </c>
       <c r="D40">
-        <v>7.7</v>
+        <v>3771.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="B41">
-        <v>5.9</v>
+        <v>2327.1000000000004</v>
       </c>
       <c r="C41">
-        <v>6.3</v>
+        <v>6535.8</v>
       </c>
       <c r="D41">
-        <v>7.4</v>
+        <v>3696.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B42">
-        <v>5.8</v>
+        <v>2348.8999999999996</v>
       </c>
       <c r="C42">
-        <v>6.4</v>
+        <v>6646.8</v>
       </c>
       <c r="D42">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5.3</v>
-      </c>
-      <c r="C43">
-        <v>5.9</v>
-      </c>
-      <c r="D43">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>5.6</v>
-      </c>
-      <c r="C44">
-        <v>6.9</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>6.3</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C46">
-        <v>5.8</v>
-      </c>
-      <c r="D46">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C47">
-        <v>6.2</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>5.5</v>
-      </c>
-      <c r="C48">
-        <v>5.9</v>
-      </c>
-      <c r="D48">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>5.5</v>
-      </c>
-      <c r="C49">
-        <v>5.8</v>
-      </c>
-      <c r="D49">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>6.1</v>
-      </c>
-      <c r="C50">
-        <v>6.5</v>
-      </c>
-      <c r="D50">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>5.7</v>
-      </c>
-      <c r="C51">
-        <v>6.6</v>
-      </c>
-      <c r="D51">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>6.1</v>
-      </c>
-      <c r="C52">
-        <v>6.8</v>
-      </c>
-      <c r="D52">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>5.6</v>
-      </c>
-      <c r="C53">
-        <v>6.2</v>
-      </c>
-      <c r="D53">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>5.5</v>
-      </c>
-      <c r="C54">
-        <v>5.8</v>
-      </c>
-      <c r="D54">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C55">
-        <v>5.7</v>
-      </c>
-      <c r="D55">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>5.5</v>
-      </c>
-      <c r="C56">
-        <v>6.5</v>
-      </c>
-      <c r="D56">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>5.9</v>
-      </c>
-      <c r="C57">
-        <v>6.6</v>
-      </c>
-      <c r="D57">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>5.2</v>
-      </c>
-      <c r="C58">
-        <v>5.8</v>
-      </c>
-      <c r="D58">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>4.8</v>
-      </c>
-      <c r="C59">
-        <v>5.5</v>
-      </c>
-      <c r="D59">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>5.6</v>
-      </c>
-      <c r="C60">
-        <v>5.5</v>
-      </c>
-      <c r="D60">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>5.3</v>
-      </c>
-      <c r="C61">
-        <v>6.1</v>
-      </c>
-      <c r="D61">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>6.3</v>
-      </c>
-      <c r="D62">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>5.9</v>
-      </c>
-      <c r="C63">
-        <v>6.4</v>
-      </c>
-      <c r="D63">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>5.3</v>
-      </c>
-      <c r="C64">
-        <v>6.5</v>
-      </c>
-      <c r="D64">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>5.2</v>
-      </c>
-      <c r="C65">
-        <v>6.1</v>
-      </c>
-      <c r="D65">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>5.5</v>
-      </c>
-      <c r="C66">
-        <v>5.7</v>
-      </c>
-      <c r="D66">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C67">
-        <v>5.8</v>
-      </c>
-      <c r="D67">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>5.3</v>
-      </c>
-      <c r="C68">
-        <v>6.6</v>
-      </c>
-      <c r="D68">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>5.6</v>
-      </c>
-      <c r="C69">
-        <v>6.6</v>
-      </c>
-      <c r="D69">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C70">
-        <v>5.3</v>
-      </c>
-      <c r="D70">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>4.7</v>
-      </c>
-      <c r="C71">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>4.8</v>
-      </c>
-      <c r="C72">
-        <v>5.2</v>
-      </c>
-      <c r="D72">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>4.3</v>
-      </c>
-      <c r="C73">
-        <v>5.3</v>
-      </c>
-      <c r="D73">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>5.2</v>
-      </c>
-      <c r="C74">
-        <v>5.6</v>
-      </c>
-      <c r="D74">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>5.7</v>
-      </c>
-      <c r="C75">
-        <v>5.8</v>
-      </c>
-      <c r="D75">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>5.6</v>
-      </c>
-      <c r="C76">
-        <v>6.1</v>
-      </c>
-      <c r="D76">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>5.6</v>
-      </c>
-      <c r="C77">
-        <v>5.4</v>
-      </c>
-      <c r="D77">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>5.4</v>
-      </c>
-      <c r="C78">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D78">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>4.7</v>
-      </c>
-      <c r="C79">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D79">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>5.3</v>
-      </c>
-      <c r="C80">
-        <v>5.5</v>
-      </c>
-      <c r="D80">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>5.3</v>
-      </c>
-      <c r="C81">
-        <v>6.3</v>
-      </c>
-      <c r="D81">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>4.8</v>
-      </c>
-      <c r="C82">
-        <v>5.3</v>
-      </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>5.2</v>
-      </c>
-      <c r="C83">
-        <v>4.8</v>
-      </c>
-      <c r="D83">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>5.3</v>
-      </c>
-      <c r="C84">
-        <v>5.4</v>
-      </c>
-      <c r="D84">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>5.6</v>
-      </c>
-      <c r="C85">
-        <v>5.2</v>
-      </c>
-      <c r="D85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>6.1</v>
-      </c>
-      <c r="C86">
-        <v>5.9</v>
-      </c>
-      <c r="D86">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>6.4</v>
-      </c>
-      <c r="C87">
-        <v>5.9</v>
-      </c>
-      <c r="D87">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>5.8</v>
-      </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
-      <c r="D88">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89">
-        <v>5.9</v>
-      </c>
-      <c r="D89">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>5.3</v>
-      </c>
-      <c r="C90">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D90">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>4.7</v>
-      </c>
-      <c r="C91">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D91">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C92">
-        <v>5.4</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-      <c r="C93">
-        <v>6.2</v>
-      </c>
-      <c r="D93">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C94">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D94">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>5.2</v>
-      </c>
-      <c r="C95">
-        <v>4.7</v>
-      </c>
-      <c r="D95">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>5.4</v>
-      </c>
-      <c r="C96">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>5.3</v>
-      </c>
-      <c r="C97">
-        <v>4.7</v>
-      </c>
-      <c r="D97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>5.3</v>
-      </c>
-      <c r="C98">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D98">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C99">
-        <v>5.3</v>
-      </c>
-      <c r="D99">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C100">
-        <v>5.6</v>
-      </c>
-      <c r="D100">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>4.7</v>
-      </c>
-      <c r="C101">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D101">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>4.8</v>
-      </c>
-      <c r="C102">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>4.8</v>
-      </c>
-      <c r="C104">
-        <v>5.4</v>
-      </c>
-      <c r="D104">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C105">
-        <v>5.6</v>
-      </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106">
-        <v>4.5</v>
-      </c>
-      <c r="D106">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>4.2</v>
-      </c>
-      <c r="C107">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D107">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>4.3</v>
-      </c>
-      <c r="C108">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D108">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>4.2</v>
-      </c>
-      <c r="C109">
-        <v>4.3</v>
-      </c>
-      <c r="D109">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>4.8</v>
-      </c>
-      <c r="C110">
-        <v>4.8</v>
-      </c>
-      <c r="D110">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C111">
-        <v>4.7</v>
-      </c>
-      <c r="D111">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>4.5</v>
-      </c>
-      <c r="C112">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D112">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>4.7</v>
-      </c>
-      <c r="C113">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D113">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C114">
-        <v>4.8</v>
-      </c>
-      <c r="D114">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C115">
-        <v>4.7</v>
-      </c>
-      <c r="D115">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>4</v>
-      </c>
-      <c r="C116">
-        <v>4.8</v>
-      </c>
-      <c r="D116">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>4.8</v>
-      </c>
-      <c r="C117">
-        <v>5.7</v>
-      </c>
-      <c r="D117">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>3.3</v>
-      </c>
-      <c r="C118">
-        <v>4.5</v>
-      </c>
-      <c r="D118">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>3.6</v>
-      </c>
-      <c r="C119">
-        <v>4.2</v>
-      </c>
-      <c r="D119">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C120">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D120">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>3.7</v>
-      </c>
-      <c r="C121">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D121">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C122">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D122">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C123">
-        <v>4.8</v>
-      </c>
-      <c r="D123">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>3.9</v>
-      </c>
-      <c r="C124">
-        <v>5.4</v>
-      </c>
-      <c r="D124">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C125">
-        <v>5</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>3.6</v>
-      </c>
-      <c r="C126">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D126">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>3.2</v>
-      </c>
-      <c r="C127">
-        <v>4.3</v>
-      </c>
-      <c r="D127">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>3.4</v>
-      </c>
-      <c r="C128">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D128">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>4.7</v>
-      </c>
-      <c r="C129">
-        <v>5.3</v>
-      </c>
-      <c r="D129">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>3.9</v>
-      </c>
-      <c r="C130">
-        <v>3.9</v>
-      </c>
-      <c r="D130">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>3.8</v>
-      </c>
-      <c r="C131">
-        <v>3.8</v>
-      </c>
-      <c r="D131">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>4.5</v>
-      </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-      <c r="D132">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>4</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133">
-        <v>4.5</v>
+        <v>3762.4</v>
       </c>
     </row>
   </sheetData>
